--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U315"/>
+  <dimension ref="A1:U319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19122,7 +19122,9 @@
       <c r="C315" t="n">
         <v>339.2024489795918</v>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="n">
+        <v>351.2444827586207</v>
+      </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
         <v>314.101052631579</v>
@@ -19172,6 +19174,274 @@
       <c r="U315" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="C316" t="n">
+        <v>331.7759183673469</v>
+      </c>
+      <c r="D316" t="n">
+        <v>315.7872413793104</v>
+      </c>
+      <c r="E316" t="n">
+        <v>317.8652380952381</v>
+      </c>
+      <c r="F316" t="n">
+        <v>323.8757894736842</v>
+      </c>
+      <c r="G316" t="n">
+        <v>325.2582352941176</v>
+      </c>
+      <c r="H316" t="n">
+        <v>322.1033333333333</v>
+      </c>
+      <c r="I316" t="n">
+        <v>321.3528571428571</v>
+      </c>
+      <c r="J316" t="n">
+        <v>339.7966666666667</v>
+      </c>
+      <c r="K316" t="n">
+        <v>370.93</v>
+      </c>
+      <c r="L316" t="n">
+        <v>366.9004761904762</v>
+      </c>
+      <c r="M316" t="n">
+        <v>358.52</v>
+      </c>
+      <c r="N316" t="n">
+        <v>367.3766666666667</v>
+      </c>
+      <c r="O316" t="n">
+        <v>373.2666666666667</v>
+      </c>
+      <c r="P316" t="n">
+        <v>380.08</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>370.2757142857143</v>
+      </c>
+      <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>346.12</v>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="n">
+        <v>318.5693103448276</v>
+      </c>
+      <c r="E317" t="n">
+        <v>314.7471428571428</v>
+      </c>
+      <c r="F317" t="n">
+        <v>314.2347368421052</v>
+      </c>
+      <c r="G317" t="n">
+        <v>323.6758823529412</v>
+      </c>
+      <c r="H317" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="I317" t="n">
+        <v>329.6657142857143</v>
+      </c>
+      <c r="J317" t="n">
+        <v>333.46</v>
+      </c>
+      <c r="K317" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="L317" t="n">
+        <v>357.7442857142857</v>
+      </c>
+      <c r="M317" t="n">
+        <v>346.8354545454546</v>
+      </c>
+      <c r="N317" t="n">
+        <v>342.88</v>
+      </c>
+      <c r="O317" t="n">
+        <v>356.12</v>
+      </c>
+      <c r="P317" t="n">
+        <v>353.6154545454545</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>358.1814285714286</v>
+      </c>
+      <c r="R317" t="n">
+        <v>360</v>
+      </c>
+      <c r="S317" t="n">
+        <v>344.3</v>
+      </c>
+      <c r="T317" t="n">
+        <v>331.7954545454546</v>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>355.68</v>
+      </c>
+      <c r="C318" t="n">
+        <v>325.5816326530612</v>
+      </c>
+      <c r="D318" t="n">
+        <v>315.2468965517241</v>
+      </c>
+      <c r="E318" t="n">
+        <v>314.125238095238</v>
+      </c>
+      <c r="F318" t="n">
+        <v>308.828947368421</v>
+      </c>
+      <c r="G318" t="n">
+        <v>315.0617647058824</v>
+      </c>
+      <c r="H318" t="n">
+        <v>321.6533333333334</v>
+      </c>
+      <c r="I318" t="n">
+        <v>328.4428571428572</v>
+      </c>
+      <c r="J318" t="n">
+        <v>334.9666666666667</v>
+      </c>
+      <c r="K318" t="n">
+        <v>349.92</v>
+      </c>
+      <c r="L318" t="n">
+        <v>372.2004761904762</v>
+      </c>
+      <c r="M318" t="n">
+        <v>357.2490909090909</v>
+      </c>
+      <c r="N318" t="n">
+        <v>352.4566666666667</v>
+      </c>
+      <c r="O318" t="n">
+        <v>362.9166666666667</v>
+      </c>
+      <c r="P318" t="n">
+        <v>372.2890909090909</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>390.4657142857143</v>
+      </c>
+      <c r="R318" t="n">
+        <v>378.78</v>
+      </c>
+      <c r="S318" t="n">
+        <v>367.8766666666667</v>
+      </c>
+      <c r="T318" t="n">
+        <v>352.2090909090909</v>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>344.15</v>
+      </c>
+      <c r="C319" t="n">
+        <v>327.0463265306122</v>
+      </c>
+      <c r="D319" t="n">
+        <v>302.4703448275862</v>
+      </c>
+      <c r="E319" t="n">
+        <v>305.5857142857143</v>
+      </c>
+      <c r="F319" t="n">
+        <v>316.7347368421052</v>
+      </c>
+      <c r="G319" t="n">
+        <v>316.7817647058824</v>
+      </c>
+      <c r="H319" t="n">
+        <v>332.63</v>
+      </c>
+      <c r="I319" t="n">
+        <v>330.2085714285714</v>
+      </c>
+      <c r="J319" t="n">
+        <v>337.55</v>
+      </c>
+      <c r="K319" t="n">
+        <v>338.59</v>
+      </c>
+      <c r="L319" t="n">
+        <v>354.7914285714286</v>
+      </c>
+      <c r="M319" t="n">
+        <v>354.4690909090909</v>
+      </c>
+      <c r="N319" t="n">
+        <v>342.33</v>
+      </c>
+      <c r="O319" t="n">
+        <v>359.44</v>
+      </c>
+      <c r="P319" t="n">
+        <v>356.7290909090909</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>357.9371428571428</v>
+      </c>
+      <c r="R319" t="n">
+        <v>361.14</v>
+      </c>
+      <c r="S319" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="T319" t="n">
+        <v>349.1890909090909</v>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19186,7 +19456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22424,6 +22694,46 @@
       </c>
       <c r="B323" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -22592,28 +22902,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03093853414459564</v>
+        <v>-0.02541586337805108</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003344328602099544</v>
+        <v>0.0002325513643556265</v>
       </c>
       <c r="M2" t="n">
-        <v>9.381675283203435</v>
+        <v>9.291477715628082</v>
       </c>
       <c r="N2" t="n">
-        <v>148.9655120269282</v>
+        <v>146.9047474614426</v>
       </c>
       <c r="O2" t="n">
-        <v>12.20514285155763</v>
+        <v>12.12042686795488</v>
       </c>
       <c r="P2" t="n">
-        <v>348.1181112555655</v>
+        <v>348.0646263160344</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22663,28 +22973,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.06490442408862017</v>
+        <v>-0.04924332910511219</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001754683488853659</v>
+        <v>0.001028707006693219</v>
       </c>
       <c r="M3" t="n">
-        <v>8.912654776852991</v>
+        <v>8.882575795161612</v>
       </c>
       <c r="N3" t="n">
-        <v>124.311339791786</v>
+        <v>123.4691504571344</v>
       </c>
       <c r="O3" t="n">
-        <v>11.14949953100075</v>
+        <v>11.11166731220542</v>
       </c>
       <c r="P3" t="n">
-        <v>322.793087915254</v>
+        <v>322.638960864876</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22740,28 +23050,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07205860567229175</v>
+        <v>-0.00138218851094354</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001401239210133243</v>
+        <v>5.052907945390928e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>10.88884065515615</v>
+        <v>11.05022570200897</v>
       </c>
       <c r="N4" t="n">
-        <v>195.5037850669152</v>
+        <v>203.6879148384654</v>
       </c>
       <c r="O4" t="n">
-        <v>13.98226680717097</v>
+        <v>14.27192750957156</v>
       </c>
       <c r="P4" t="n">
-        <v>303.2895715561767</v>
+        <v>302.6200623984596</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22817,28 +23127,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2232529878825175</v>
+        <v>0.2425259705140259</v>
       </c>
       <c r="J5" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01495078717440079</v>
+        <v>0.01803103321545696</v>
       </c>
       <c r="M5" t="n">
-        <v>9.595915998978308</v>
+        <v>9.531624617401762</v>
       </c>
       <c r="N5" t="n">
-        <v>168.1269321183159</v>
+        <v>166.4794876678396</v>
       </c>
       <c r="O5" t="n">
-        <v>12.96637698504544</v>
+        <v>12.90269303935576</v>
       </c>
       <c r="P5" t="n">
-        <v>300.9705232884969</v>
+        <v>300.7811119908119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22888,28 +23198,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.3369233538388561</v>
+        <v>0.3992353033788557</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01298350314858498</v>
+        <v>0.01849091788249813</v>
       </c>
       <c r="M6" t="n">
-        <v>17.30843181366471</v>
+        <v>17.30310714893937</v>
       </c>
       <c r="N6" t="n">
-        <v>420.2389830766166</v>
+        <v>419.3118779929966</v>
       </c>
       <c r="O6" t="n">
-        <v>20.49973129279056</v>
+        <v>20.47710619186697</v>
       </c>
       <c r="P6" t="n">
-        <v>288.714583076311</v>
+        <v>288.0854783738992</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22965,28 +23275,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4474572249243391</v>
+        <v>0.4715699981038509</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0497918891073228</v>
+        <v>0.05654162140542462</v>
       </c>
       <c r="M7" t="n">
-        <v>10.178178074891</v>
+        <v>10.11450394565455</v>
       </c>
       <c r="N7" t="n">
-        <v>196.6387442745086</v>
+        <v>194.4295541732853</v>
       </c>
       <c r="O7" t="n">
-        <v>14.02279373999734</v>
+        <v>13.94379984700316</v>
       </c>
       <c r="P7" t="n">
-        <v>301.7760650604419</v>
+        <v>301.5423153347956</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23042,28 +23352,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2453894126692977</v>
+        <v>0.272782838752022</v>
       </c>
       <c r="J8" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0178336866808908</v>
+        <v>0.02242384580108081</v>
       </c>
       <c r="M8" t="n">
-        <v>10.10494440151453</v>
+        <v>10.07043600329829</v>
       </c>
       <c r="N8" t="n">
-        <v>171.0913444861764</v>
+        <v>170.1075592501423</v>
       </c>
       <c r="O8" t="n">
-        <v>13.08018900804481</v>
+        <v>13.04252886713855</v>
       </c>
       <c r="P8" t="n">
-        <v>313.1000963955468</v>
+        <v>312.832747276577</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23119,28 +23429,28 @@
         <v>0.0848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2447377800032241</v>
+        <v>0.254418663801356</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01377472589946538</v>
+        <v>0.01530899660665652</v>
       </c>
       <c r="M9" t="n">
-        <v>11.26778841938894</v>
+        <v>11.15323087592662</v>
       </c>
       <c r="N9" t="n">
-        <v>219.2422843658669</v>
+        <v>216.0054763289185</v>
       </c>
       <c r="O9" t="n">
-        <v>14.80683235421631</v>
+        <v>14.69712476401144</v>
       </c>
       <c r="P9" t="n">
-        <v>318.1777734551839</v>
+        <v>318.0810763683219</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23196,28 +23506,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4548273626530029</v>
+        <v>0.4611123559744131</v>
       </c>
       <c r="J10" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05193703073726086</v>
+        <v>0.0549173782349256</v>
       </c>
       <c r="M10" t="n">
-        <v>11.04219908550281</v>
+        <v>10.89658511840979</v>
       </c>
       <c r="N10" t="n">
-        <v>194.9408583399481</v>
+        <v>191.8410591670765</v>
       </c>
       <c r="O10" t="n">
-        <v>13.96212227205979</v>
+        <v>13.85066998982636</v>
       </c>
       <c r="P10" t="n">
-        <v>323.0598781708662</v>
+        <v>322.9981092456806</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23273,28 +23583,28 @@
         <v>0.0542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3793022267454356</v>
+        <v>0.4092401433268436</v>
       </c>
       <c r="J11" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K11" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03429465311006619</v>
+        <v>0.04030191987214726</v>
       </c>
       <c r="M11" t="n">
-        <v>11.35829521317601</v>
+        <v>11.3527775618974</v>
       </c>
       <c r="N11" t="n">
-        <v>213.1200481662603</v>
+        <v>213.2512487650575</v>
       </c>
       <c r="O11" t="n">
-        <v>14.59863172239989</v>
+        <v>14.60312462334885</v>
       </c>
       <c r="P11" t="n">
-        <v>333.3115733194942</v>
+        <v>333.0233553309078</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -23344,28 +23654,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4209946947687104</v>
+        <v>0.4828996816103004</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K12" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03508615798308534</v>
+        <v>0.04579626536766257</v>
       </c>
       <c r="M12" t="n">
-        <v>12.56006922145784</v>
+        <v>12.6802760971776</v>
       </c>
       <c r="N12" t="n">
-        <v>254.5922839795862</v>
+        <v>257.6728529580491</v>
       </c>
       <c r="O12" t="n">
-        <v>15.95594823191609</v>
+        <v>16.05219153131588</v>
       </c>
       <c r="P12" t="n">
-        <v>331.951238869761</v>
+        <v>331.3494109195184</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -23421,28 +23731,28 @@
         <v>0.0641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2062815977350382</v>
+        <v>0.2472691030854611</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K13" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007594841335662017</v>
+        <v>0.0111062153946998</v>
       </c>
       <c r="M13" t="n">
-        <v>13.11327356150679</v>
+        <v>13.09027596243159</v>
       </c>
       <c r="N13" t="n">
-        <v>288.7178395800752</v>
+        <v>287.0968067239516</v>
       </c>
       <c r="O13" t="n">
-        <v>16.99169913752228</v>
+        <v>16.94393126532186</v>
       </c>
       <c r="P13" t="n">
-        <v>335.8081329617259</v>
+        <v>335.4080176707979</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -23498,28 +23808,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3600138612592818</v>
+        <v>0.3782598509209447</v>
       </c>
       <c r="J14" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K14" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02635749637000351</v>
+        <v>0.02971710681970718</v>
       </c>
       <c r="M14" t="n">
-        <v>12.77879063518768</v>
+        <v>12.72195979904631</v>
       </c>
       <c r="N14" t="n">
-        <v>249.5467934491994</v>
+        <v>247.5788567520701</v>
       </c>
       <c r="O14" t="n">
-        <v>15.79705015024006</v>
+        <v>15.73463875505472</v>
       </c>
       <c r="P14" t="n">
-        <v>336.5591521130029</v>
+        <v>336.3830761967988</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -23575,28 +23885,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2770807482114874</v>
+        <v>0.3263195695715448</v>
       </c>
       <c r="J15" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K15" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01408499799911977</v>
+        <v>0.01972450643175017</v>
       </c>
       <c r="M15" t="n">
-        <v>13.46914482978677</v>
+        <v>13.48827153943194</v>
       </c>
       <c r="N15" t="n">
-        <v>274.0362533579946</v>
+        <v>274.1247609503974</v>
       </c>
       <c r="O15" t="n">
-        <v>16.55404039375265</v>
+        <v>16.55671347068606</v>
       </c>
       <c r="P15" t="n">
-        <v>340.1943064502061</v>
+        <v>339.7079815971553</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -23652,28 +23962,28 @@
         <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08673936852441207</v>
+        <v>0.1422756278815532</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K16" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00146055702165715</v>
+        <v>0.003947509946686356</v>
       </c>
       <c r="M16" t="n">
-        <v>13.37523827443775</v>
+        <v>13.45158497193343</v>
       </c>
       <c r="N16" t="n">
-        <v>276.7104814194339</v>
+        <v>279.0775670647803</v>
       </c>
       <c r="O16" t="n">
-        <v>16.63461696040621</v>
+        <v>16.70561483647879</v>
       </c>
       <c r="P16" t="n">
-        <v>345.885999903618</v>
+        <v>345.3564521127612</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -23729,28 +24039,28 @@
         <v>0.0379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2285683495763559</v>
+        <v>0.2734359691257649</v>
       </c>
       <c r="J17" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K17" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006283730522294362</v>
+        <v>0.009140991245235486</v>
       </c>
       <c r="M17" t="n">
-        <v>16.75838581535903</v>
+        <v>16.68469599302752</v>
       </c>
       <c r="N17" t="n">
-        <v>431.2976969211585</v>
+        <v>430.0805889154772</v>
       </c>
       <c r="O17" t="n">
-        <v>20.76770803245169</v>
+        <v>20.73838443359263</v>
       </c>
       <c r="P17" t="n">
-        <v>349.5672487315214</v>
+        <v>349.1319885013323</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -23806,28 +24116,28 @@
         <v>0.0606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5996804705317835</v>
+        <v>0.6349292166283689</v>
       </c>
       <c r="J18" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K18" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05165894430243723</v>
+        <v>0.05862943588734848</v>
       </c>
       <c r="M18" t="n">
-        <v>14.51380368436893</v>
+        <v>14.44974279356975</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4477174172587</v>
+        <v>336.6219459018128</v>
       </c>
       <c r="O18" t="n">
-        <v>18.39694858984116</v>
+        <v>18.34725990173499</v>
       </c>
       <c r="P18" t="n">
-        <v>339.3621752128574</v>
+        <v>339.0133058164087</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -23883,28 +24193,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9473070135331533</v>
+        <v>1.054235041352396</v>
       </c>
       <c r="J19" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K19" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02090774603029555</v>
+        <v>0.02618183294135823</v>
       </c>
       <c r="M19" t="n">
-        <v>40.97693709898556</v>
+        <v>40.77170062685614</v>
       </c>
       <c r="N19" t="n">
-        <v>1999.584778796531</v>
+        <v>1993.585784159437</v>
       </c>
       <c r="O19" t="n">
-        <v>44.71671699483908</v>
+        <v>44.64958884647693</v>
       </c>
       <c r="P19" t="n">
-        <v>293.0773543343964</v>
+        <v>291.9637262003162</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -23960,28 +24270,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7538196600792511</v>
+        <v>0.8490967684482854</v>
       </c>
       <c r="J20" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K20" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01682895232681791</v>
+        <v>0.02169404463053559</v>
       </c>
       <c r="M20" t="n">
-        <v>34.48440560432874</v>
+        <v>34.36893823882794</v>
       </c>
       <c r="N20" t="n">
-        <v>1559.783083196869</v>
+        <v>1553.080587159276</v>
       </c>
       <c r="O20" t="n">
-        <v>39.49408921847508</v>
+        <v>39.40914344615062</v>
       </c>
       <c r="P20" t="n">
-        <v>293.180543507348</v>
+        <v>292.2037848394855</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -24018,7 +24328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U315"/>
+  <dimension ref="A1:U319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51580,7 +51890,11 @@
           <t>-38.463007904470686,174.64405749653082</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-38.46230721979422,174.64390811746077</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
@@ -51660,6 +51974,418 @@
       <c r="U315" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-38.463713737520585,174.6439386958937</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-38.46300626892853,174.6441425747239</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-38.46229941107595,174.64431431099194</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-38.461596525423694,174.64427907627723</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-38.460894498990065,174.64419879207009</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-38.46019144638807,174.6441715266219</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-38.45948738766441,174.64419623872234</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-38.45878385161653,174.6441934066721</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-38.45808386487369,174.64397070725772</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-38.45739246711337,174.64359512765844</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-38.45669083518945,174.6435792445712</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-38.455982959854026,174.6436126327043</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-38.45528765507256,174.643449161366</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-38.454590178667615,174.64331957259668</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-38.45389336902162,174.64317944033684</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-38.453192811634004,174.64323071440845</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-38.463712757550724,174.64398967550989</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-38.462300023819516,174.64428243997787</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-38.46159583867656,174.6443147964169</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-38.46089237564515,174.64430923655206</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-38.4601910979046,174.6441896533214</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-38.45949033792721,174.64404277422136</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-38.45878568231248,174.64409818029344</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-38.4580822173267,174.64404328650994</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-38.45738119091893,174.64384565906587</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-38.45668415415577,174.64368381530102</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-38.45597443388942,174.64374607787644</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-38.45526978058607,174.64372892669013</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-38.45457766753954,174.64351539506382</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>-38.453874059288204,174.64348167418214</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>-38.453176518191064,174.64336773110867</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>-38.452497020993974,174.64316380350945</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>-38.451781185686364,174.64308991401535</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>-38.45107256901864,174.64298044566647</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-38.46371486280696,174.64388015525302</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-38.463004904715994,174.6442135363383</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-38.462299292065374,174.6443205011107</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-38.46159570170341,174.64432192080625</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-38.460891185028856,174.64437116335588</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-38.46018920075803,174.6442883326428</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-38.459487288560275,174.64420139366294</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-38.45878541301406,174.64411218850495</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-38.45808260906736,174.644026029371</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-38.45738164918564,174.6438354776544</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-38.45669470241891,174.64351871448892</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-38.45598203250601,174.6436271473214</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-38.4552767684731,174.64361955594114</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-38.45458262679124,174.6434377741537</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-38.45388768450141,174.64326841511016</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>-38.45322001128322,174.64300198085135</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>-38.45253964141198,174.64295556485428</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>-38.451841855597586,174.6428310330749</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>-38.45112509944601,174.64275629820355</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-38.46371232371429,174.64401224401345</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-38.46300522730004,174.64419675683465</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-38.46229647794361,174.64446686758566</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-38.461593820848194,174.6444197475052</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-38.46089292625501,174.6442805974391</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-38.46018957957214,174.6442686291242</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-38.459489705902236,174.6440756512908</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-38.4587858018603,174.64409196169478</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-38.45808328074065,174.64399644024934</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-38.45737581522996,174.64396509044226</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-38.45668199951298,174.6437175391934</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-38.45598000400886,174.643658896747</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-38.45526937925985,174.64373520798895</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-38.454580090015135,174.64347747921127</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>-38.453876331178904,174.64344611543686</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>-38.45317618908729,174.6433704986317</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>-38.45249960818631,174.64315116283166</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>-38.45181023834951,174.6429659454948</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>-38.45111732810411,174.6427894586735</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -22747,7 +22747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22838,35 +22838,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22925,27 +22930,28 @@
       <c r="P2" t="n">
         <v>348.0646263160344</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.64795485191695 -38.463636467810126, 174.63748937759192 -38.463837532237946)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6479548519169</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.46363646781013</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6374893775919</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.46383753223795</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6427221147544</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.46373700002404</v>
       </c>
     </row>
@@ -22996,27 +23002,28 @@
       <c r="P3" t="n">
         <v>322.638960864876</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.64794338711644 -38.462933139058855, 174.63747797945842 -38.463134201696484)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6479433871164</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.46293313905885</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6374779794584</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.46313420169648</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6427106832874</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.46303367037767</v>
       </c>
     </row>
@@ -23073,27 +23080,28 @@
       <c r="P4" t="n">
         <v>302.6200623984596</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.64793192231647 -38.4622298034492, 174.63746658132385 -38.46243086429642)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6479319223165</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.4622298034492</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6374665813238</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.46243086429642</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6426992518201</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.46233033387281</v>
       </c>
     </row>
@@ -23150,27 +23158,28 @@
       <c r="P5" t="n">
         <v>300.7811119908119</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.6479204575171 -38.46152646098107, 174.63745518318817 -38.4617275200379)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.6479204575171</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.46152646098107</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6374551831882</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.4617275200379</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6426878203526</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.46162699050949</v>
       </c>
     </row>
@@ -23221,27 +23230,28 @@
       <c r="P6" t="n">
         <v>288.0854783738992</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.6479089927183 -38.46082311165449, 174.6374437850514 -38.461024168921064)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6479089927183</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.46082311165449</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6374437850514</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.46102416892106</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6426763888849</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.46092364028777</v>
       </c>
     </row>
@@ -23298,27 +23308,28 @@
       <c r="P7" t="n">
         <v>301.5423153347956</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.6478975279201 -38.46011975546951, 174.63743238691345 -38.46032081094582)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6478975279201</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.46011975546951</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6374323869134</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.46032081094582</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6426649574168</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.46022028320766</v>
       </c>
     </row>
@@ -23375,27 +23386,28 @@
       <c r="P8" t="n">
         <v>312.832747276577</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.64788606312243 -38.4594163924262, 174.63742098877447 -38.459617446112254)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6478860631224</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.4594163924262</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6374209887745</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.45961744611225</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6426535259484</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.45951691926923</v>
       </c>
     </row>
@@ -23452,27 +23464,28 @@
       <c r="P9" t="n">
         <v>318.0810763683219</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.6478745983253 -38.458713022524634, 174.6374095906343 -38.45891407442037)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6478745983253</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.45871302252463</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6374095906343</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.45891407442037</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6426420944798</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.45881354847251</v>
       </c>
     </row>
@@ -23529,27 +23542,28 @@
       <c r="P10" t="n">
         <v>322.9981092456806</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.6478626815714 -38.45799545364103, 174.63739897448912 -38.458232856424765)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6478626815714</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.45799545364103</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6373989744891</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.45823285642476</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6426308280303</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.4581141550329</v>
       </c>
     </row>
@@ -23606,27 +23620,28 @@
       <c r="P11" t="n">
         <v>333.0233553309078</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.64783847593097 -38.45720140510354, 174.63738760818862 -38.45767168999217)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.647838475931</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.45720140510354</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6373876081886</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.45767168999217</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6426130420598</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.45743654754786</v>
       </c>
     </row>
@@ -23677,27 +23692,28 @@
       <c r="P12" t="n">
         <v>331.3494109195184</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.6477695121606 -38.45642304470193, 174.6373360265122 -38.45708954390707)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6477695121606</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.45642304470193</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6373360265122</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.45708954390707</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6425527693364</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.4567562943045</v>
       </c>
     </row>
@@ -23754,27 +23770,28 @@
       <c r="P13" t="n">
         <v>335.4080176707979</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.64770714943205 -38.45572128649084, 174.63727372946246 -38.45638778253321)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6477071494321</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.45572128649084</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6372737294625</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.45638778253321</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6424904394473</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.45605453451203</v>
       </c>
     </row>
@@ -23831,27 +23848,28 @@
       <c r="P14" t="n">
         <v>336.3830761967988</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.64764478670406 -38.45501952145354, 174.63721143241156 -38.455686014333246)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6476447867041</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.45501952145354</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.6372114324116</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.45568601433325</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6424281095578</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.45535276789339</v>
       </c>
     </row>
@@ -23908,27 +23926,28 @@
       <c r="P15" t="n">
         <v>339.7079815971553</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.64758242397662 -38.45431774959008, 174.6371491353596 -38.454984239307194)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.6475824239766</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.45431774959008</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.6371491353596</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.45498423930719</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.6423657796681</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.45465099444864</v>
       </c>
     </row>
@@ -23985,27 +24004,28 @@
       <c r="P16" t="n">
         <v>345.3564521127612</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.64752006124968 -38.45361597090052, 174.63708683830654 -38.45428245745507)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.6475200612497</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.45361597090052</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.6370868383065</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.45428245745507</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.6423034497781</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.4539492141778</v>
       </c>
     </row>
@@ -24062,27 +24082,28 @@
       <c r="P17" t="n">
         <v>349.1319885013323</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.64742555390606 -38.452693903469, 174.63707589512208 -38.45392454433092)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.6474255539061</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.452693903469</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.6370758951221</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.45392454433092</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.6422507245141</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.45330922389996</v>
       </c>
     </row>
@@ -24139,27 +24160,28 @@
       <c r="P18" t="n">
         <v>339.0133058164087</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.64715554901784 -38.45167994559533, 174.63702632411724 -38.45375300984044)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.6471555490178</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.45167994559533</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.6370263241172</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.45375300984044</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.6420909365675</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.45271647771789</v>
       </c>
     </row>
@@ -24216,27 +24238,28 @@
       <c r="P19" t="n">
         <v>291.9637262003162</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.64687040992882 -38.45089513323723, 174.63683998514765 -38.453245697628866)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.6468704099288</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.45089513323723</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.6368399851476</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.45324569762887</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.6418551975382</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.45207041543305</v>
       </c>
     </row>
@@ -24293,27 +24316,28 @@
       <c r="P20" t="n">
         <v>292.2037848394855</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.64662360540555 -38.45021870030042, 174.6365932356381 -38.452569257008854)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.6466236054056</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.45021870030042</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.6365932356381</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.45256925700885</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.6416084205218</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.45139397865464</v>
       </c>
     </row>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U319"/>
+  <dimension ref="A1:U326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19445,6 +19445,463 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>351.68</v>
+      </c>
+      <c r="C320" t="n">
+        <v>326.9636734693877</v>
+      </c>
+      <c r="D320" t="n">
+        <v>306.4103448275862</v>
+      </c>
+      <c r="E320" t="n">
+        <v>305.557619047619</v>
+      </c>
+      <c r="F320" t="n">
+        <v>320.7373684210527</v>
+      </c>
+      <c r="G320" t="n">
+        <v>318.4935294117647</v>
+      </c>
+      <c r="H320" t="n">
+        <v>343.9666666666667</v>
+      </c>
+      <c r="I320" t="n">
+        <v>340.5714285714286</v>
+      </c>
+      <c r="J320" t="n">
+        <v>327.3633333333333</v>
+      </c>
+      <c r="K320" t="n">
+        <v>338.65</v>
+      </c>
+      <c r="L320" t="n">
+        <v>346.3652380952381</v>
+      </c>
+      <c r="M320" t="n">
+        <v>357.1518181818182</v>
+      </c>
+      <c r="N320" t="n">
+        <v>358.6333333333333</v>
+      </c>
+      <c r="O320" t="n">
+        <v>358.1433333333333</v>
+      </c>
+      <c r="P320" t="n">
+        <v>351.8218181818182</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>359.5928571428572</v>
+      </c>
+      <c r="R320" t="n">
+        <v>367.41</v>
+      </c>
+      <c r="S320" t="n">
+        <v>355.5533333333333</v>
+      </c>
+      <c r="T320" t="n">
+        <v>354.2418181818182</v>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>355.42</v>
+      </c>
+      <c r="C321" t="n">
+        <v>330.4285714285714</v>
+      </c>
+      <c r="D321" t="n">
+        <v>310.2458620689656</v>
+      </c>
+      <c r="E321" t="n">
+        <v>315.0666666666667</v>
+      </c>
+      <c r="F321" t="n">
+        <v>306.448947368421</v>
+      </c>
+      <c r="G321" t="n">
+        <v>314.2958823529411</v>
+      </c>
+      <c r="H321" t="n">
+        <v>329.5033333333333</v>
+      </c>
+      <c r="I321" t="n">
+        <v>341.24</v>
+      </c>
+      <c r="J321" t="n">
+        <v>329.8266666666667</v>
+      </c>
+      <c r="K321" t="n">
+        <v>344.73</v>
+      </c>
+      <c r="L321" t="n">
+        <v>359.7433333333333</v>
+      </c>
+      <c r="M321" t="n">
+        <v>370.5754545454545</v>
+      </c>
+      <c r="N321" t="n">
+        <v>369.0466666666667</v>
+      </c>
+      <c r="O321" t="n">
+        <v>362.1666666666667</v>
+      </c>
+      <c r="P321" t="n">
+        <v>366.1954545454545</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>381.87</v>
+      </c>
+      <c r="R321" t="n">
+        <v>380.56</v>
+      </c>
+      <c r="S321" t="n">
+        <v>364.9166666666667</v>
+      </c>
+      <c r="T321" t="n">
+        <v>366.3854545454545</v>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>345.47</v>
+      </c>
+      <c r="C322" t="n">
+        <v>315.721224489796</v>
+      </c>
+      <c r="D322" t="n">
+        <v>300.1865517241379</v>
+      </c>
+      <c r="E322" t="n">
+        <v>323.8980952380953</v>
+      </c>
+      <c r="F322" t="n">
+        <v>311.8084210526316</v>
+      </c>
+      <c r="G322" t="n">
+        <v>307.9594117647059</v>
+      </c>
+      <c r="H322" t="n">
+        <v>315.2733333333334</v>
+      </c>
+      <c r="I322" t="n">
+        <v>329.7871428571428</v>
+      </c>
+      <c r="J322" t="n">
+        <v>331.1066666666667</v>
+      </c>
+      <c r="K322" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="L322" t="n">
+        <v>337.8661904761905</v>
+      </c>
+      <c r="M322" t="n">
+        <v>352.5336363636364</v>
+      </c>
+      <c r="N322" t="n">
+        <v>365.9966666666666</v>
+      </c>
+      <c r="O322" t="n">
+        <v>364.8866666666667</v>
+      </c>
+      <c r="P322" t="n">
+        <v>362.9136363636364</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>365.6542857142857</v>
+      </c>
+      <c r="R322" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="S322" t="n">
+        <v>368.6866666666667</v>
+      </c>
+      <c r="T322" t="n">
+        <v>363.9436363636364</v>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>322.28</v>
+      </c>
+      <c r="C323" t="n">
+        <v>321.8926530612245</v>
+      </c>
+      <c r="D323" t="n">
+        <v>312.0679310344827</v>
+      </c>
+      <c r="E323" t="n">
+        <v>312.7580952380952</v>
+      </c>
+      <c r="F323" t="n">
+        <v>321.101052631579</v>
+      </c>
+      <c r="G323" t="n">
+        <v>315.9423529411765</v>
+      </c>
+      <c r="H323" t="n">
+        <v>302.5933333333334</v>
+      </c>
+      <c r="I323" t="n">
+        <v>328.8071428571428</v>
+      </c>
+      <c r="J323" t="n">
+        <v>339.4266666666667</v>
+      </c>
+      <c r="K323" t="n">
+        <v>347.99</v>
+      </c>
+      <c r="L323" t="n">
+        <v>359.5561904761905</v>
+      </c>
+      <c r="M323" t="n">
+        <v>366.2045454545454</v>
+      </c>
+      <c r="N323" t="n">
+        <v>366.7866666666667</v>
+      </c>
+      <c r="O323" t="n">
+        <v>363.5566666666667</v>
+      </c>
+      <c r="P323" t="n">
+        <v>373.9145454545454</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>386.6842857142857</v>
+      </c>
+      <c r="R323" t="n">
+        <v>368.86</v>
+      </c>
+      <c r="S323" t="n">
+        <v>368.3866666666667</v>
+      </c>
+      <c r="T323" t="n">
+        <v>365.5145454545454</v>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="n">
+        <v>297.3403448275862</v>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="n">
+        <v>336.1521052631579</v>
+      </c>
+      <c r="G324" t="n">
+        <v>308.17</v>
+      </c>
+      <c r="H324" t="n">
+        <v>317.8833333333333</v>
+      </c>
+      <c r="I324" t="n">
+        <v>336.0757142857143</v>
+      </c>
+      <c r="J324" t="n">
+        <v>323.5166666666667</v>
+      </c>
+      <c r="K324" t="n">
+        <v>320.04</v>
+      </c>
+      <c r="L324" t="n">
+        <v>329.6476190476191</v>
+      </c>
+      <c r="M324" t="n">
+        <v>337.4563636363636</v>
+      </c>
+      <c r="N324" t="n">
+        <v>355.0066666666667</v>
+      </c>
+      <c r="O324" t="n">
+        <v>372.4066666666667</v>
+      </c>
+      <c r="P324" t="n">
+        <v>361.1063636363637</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>363.7814285714285</v>
+      </c>
+      <c r="R324" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="S324" t="n">
+        <v>364.3566666666667</v>
+      </c>
+      <c r="T324" t="n">
+        <v>356.7063636363636</v>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>359.19</v>
+      </c>
+      <c r="C325" t="n">
+        <v>326.1136734693878</v>
+      </c>
+      <c r="D325" t="n">
+        <v>321.308275862069</v>
+      </c>
+      <c r="E325" t="n">
+        <v>313.937619047619</v>
+      </c>
+      <c r="F325" t="n">
+        <v>296.091052631579</v>
+      </c>
+      <c r="G325" t="n">
+        <v>311.7276470588235</v>
+      </c>
+      <c r="H325" t="n">
+        <v>320.1366666666667</v>
+      </c>
+      <c r="I325" t="n">
+        <v>335.1014285714285</v>
+      </c>
+      <c r="J325" t="n">
+        <v>340.5133333333333</v>
+      </c>
+      <c r="K325" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="L325" t="n">
+        <v>353.7252380952381</v>
+      </c>
+      <c r="M325" t="n">
+        <v>362.6790909090909</v>
+      </c>
+      <c r="N325" t="n">
+        <v>370.1033333333333</v>
+      </c>
+      <c r="O325" t="n">
+        <v>375.9233333333333</v>
+      </c>
+      <c r="P325" t="n">
+        <v>372.9990909090909</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>390.2128571428572</v>
+      </c>
+      <c r="R325" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="S325" t="n">
+        <v>373.1433333333333</v>
+      </c>
+      <c r="T325" t="n">
+        <v>381.0390909090909</v>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>378.91</v>
+      </c>
+      <c r="C326" t="n">
+        <v>361.1620408163265</v>
+      </c>
+      <c r="D326" t="n">
+        <v>348.7420689655173</v>
+      </c>
+      <c r="E326" t="n">
+        <v>331.0757142857143</v>
+      </c>
+      <c r="F326" t="n">
+        <v>320.3442105263158</v>
+      </c>
+      <c r="G326" t="n">
+        <v>288.0011764705882</v>
+      </c>
+      <c r="H326" t="n">
+        <v>309.4</v>
+      </c>
+      <c r="I326" t="n">
+        <v>304.5885714285715</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>314.5314285714285</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
+      <c r="R326" t="inlineStr"/>
+      <c r="S326" t="inlineStr"/>
+      <c r="T326" t="inlineStr"/>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19456,7 +19913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22734,6 +23191,76 @@
       </c>
       <c r="B327" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -22907,28 +23434,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02541586337805108</v>
+        <v>-0.004264596855598901</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002325513643556265</v>
+        <v>6.528078758782918e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>9.291477715628082</v>
+        <v>9.387872382279534</v>
       </c>
       <c r="N2" t="n">
-        <v>146.9047474614426</v>
+        <v>150.7188592819583</v>
       </c>
       <c r="O2" t="n">
-        <v>12.12042686795488</v>
+        <v>12.27676094423763</v>
       </c>
       <c r="P2" t="n">
-        <v>348.0646263160344</v>
+        <v>347.8560684556766</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22979,28 +23506,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.04924332910511219</v>
+        <v>-0.01045648421218768</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001028707006693219</v>
+        <v>4.598604431416131e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.882575795161612</v>
+        <v>8.913911207542814</v>
       </c>
       <c r="N3" t="n">
-        <v>123.4691504571344</v>
+        <v>127.2671365653112</v>
       </c>
       <c r="O3" t="n">
-        <v>11.11166731220542</v>
+        <v>11.28127371201104</v>
       </c>
       <c r="P3" t="n">
-        <v>322.638960864876</v>
+        <v>322.2516369856018</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23057,28 +23584,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00138218851094354</v>
+        <v>0.05391572043151983</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L4" t="n">
-        <v>5.052907945390928e-07</v>
+        <v>0.0007710196703781813</v>
       </c>
       <c r="M4" t="n">
-        <v>11.05022570200897</v>
+        <v>11.12313833932774</v>
       </c>
       <c r="N4" t="n">
-        <v>203.6879148384654</v>
+        <v>208.2249502905788</v>
       </c>
       <c r="O4" t="n">
-        <v>14.27192750957156</v>
+        <v>14.43000174257019</v>
       </c>
       <c r="P4" t="n">
-        <v>302.6200623984596</v>
+        <v>302.0850622059027</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23135,28 +23662,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2425259705140259</v>
+        <v>0.2857515680629187</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01803103321545696</v>
+        <v>0.0253889247809721</v>
       </c>
       <c r="M5" t="n">
-        <v>9.531624617401762</v>
+        <v>9.498941820701649</v>
       </c>
       <c r="N5" t="n">
-        <v>166.4794876678396</v>
+        <v>166.4238667401949</v>
       </c>
       <c r="O5" t="n">
-        <v>12.90269303935576</v>
+        <v>12.90053745935397</v>
       </c>
       <c r="P5" t="n">
-        <v>300.7811119908119</v>
+        <v>300.3501790870919</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23207,28 +23734,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.3992353033788557</v>
+        <v>0.4969931719119534</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01849091788249813</v>
+        <v>0.02913519668066233</v>
       </c>
       <c r="M6" t="n">
-        <v>17.30310714893937</v>
+        <v>17.27457487728544</v>
       </c>
       <c r="N6" t="n">
-        <v>419.3118779929966</v>
+        <v>419.7513861292391</v>
       </c>
       <c r="O6" t="n">
-        <v>20.47710619186697</v>
+        <v>20.48783507667999</v>
       </c>
       <c r="P6" t="n">
-        <v>288.0854783738992</v>
+        <v>287.0879689928622</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23285,28 +23812,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4715699981038509</v>
+        <v>0.4482444644383502</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05654162140542462</v>
+        <v>0.0534815258311484</v>
       </c>
       <c r="M7" t="n">
-        <v>10.11450394565455</v>
+        <v>10.02240022612448</v>
       </c>
       <c r="N7" t="n">
-        <v>194.4295541732853</v>
+        <v>191.7998435587858</v>
       </c>
       <c r="O7" t="n">
-        <v>13.94379984700316</v>
+        <v>13.84918205378158</v>
       </c>
       <c r="P7" t="n">
-        <v>301.5423153347956</v>
+        <v>301.772176358609</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23363,28 +23890,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.272782838752022</v>
+        <v>0.2730746716027707</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02242384580108081</v>
+        <v>0.02310396001880388</v>
       </c>
       <c r="M8" t="n">
-        <v>10.07043600329829</v>
+        <v>10.06128640686895</v>
       </c>
       <c r="N8" t="n">
-        <v>170.1075592501423</v>
+        <v>169.7823569419374</v>
       </c>
       <c r="O8" t="n">
-        <v>13.04252886713855</v>
+        <v>13.03005590709178</v>
       </c>
       <c r="P8" t="n">
-        <v>312.832747276577</v>
+        <v>312.8311164831348</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23441,28 +23968,28 @@
         <v>0.0848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.254418663801356</v>
+        <v>0.2867231086145683</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K9" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01530899660665652</v>
+        <v>0.01993460371988998</v>
       </c>
       <c r="M9" t="n">
-        <v>11.15323087592662</v>
+        <v>11.15801619567838</v>
       </c>
       <c r="N9" t="n">
-        <v>216.0054763289185</v>
+        <v>214.7898656746871</v>
       </c>
       <c r="O9" t="n">
-        <v>14.69712476401144</v>
+        <v>14.65571102590001</v>
       </c>
       <c r="P9" t="n">
-        <v>318.0810763683219</v>
+        <v>317.7570206437224</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23519,28 +24046,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4611123559744131</v>
+        <v>0.4491083499241376</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K10" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0549173782349256</v>
+        <v>0.05429855791840998</v>
       </c>
       <c r="M10" t="n">
-        <v>10.89658511840979</v>
+        <v>10.78531044146073</v>
       </c>
       <c r="N10" t="n">
-        <v>191.8410591670765</v>
+        <v>188.2287365233354</v>
       </c>
       <c r="O10" t="n">
-        <v>13.85066998982636</v>
+        <v>13.7196478279632</v>
       </c>
       <c r="P10" t="n">
-        <v>322.9981092456806</v>
+        <v>323.1172376003588</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23597,28 +24124,28 @@
         <v>0.0542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4092401433268436</v>
+        <v>0.3889970822846159</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K11" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04030191987214726</v>
+        <v>0.03770516114445821</v>
       </c>
       <c r="M11" t="n">
-        <v>11.3527775618974</v>
+        <v>11.30125569761787</v>
       </c>
       <c r="N11" t="n">
-        <v>213.2512487650575</v>
+        <v>211.271158209984</v>
       </c>
       <c r="O11" t="n">
-        <v>14.60312462334885</v>
+        <v>14.53516970007519</v>
       </c>
       <c r="P11" t="n">
-        <v>333.0233553309078</v>
+        <v>333.221128327825</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23669,28 +24196,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4828996816103004</v>
+        <v>0.4803051162716647</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04579626536766257</v>
+        <v>0.04648466449318778</v>
       </c>
       <c r="M12" t="n">
-        <v>12.6802760971776</v>
+        <v>12.70025544620893</v>
       </c>
       <c r="N12" t="n">
-        <v>257.6728529580491</v>
+        <v>257.2672661227795</v>
       </c>
       <c r="O12" t="n">
-        <v>16.05219153131588</v>
+        <v>16.03955317715489</v>
       </c>
       <c r="P12" t="n">
-        <v>331.3494109195184</v>
+        <v>331.3759584754535</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23747,28 +24274,28 @@
         <v>0.0641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2472691030854611</v>
+        <v>0.3181389276645562</v>
       </c>
       <c r="J13" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0111062153946998</v>
+        <v>0.01853906282377138</v>
       </c>
       <c r="M13" t="n">
-        <v>13.09027596243159</v>
+        <v>13.13708690257713</v>
       </c>
       <c r="N13" t="n">
-        <v>287.0968067239516</v>
+        <v>288.8062512178185</v>
       </c>
       <c r="O13" t="n">
-        <v>16.94393126532186</v>
+        <v>16.99430055100293</v>
       </c>
       <c r="P13" t="n">
-        <v>335.4080176707979</v>
+        <v>334.7089538979912</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23825,28 +24352,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3782598509209447</v>
+        <v>0.4626573879703094</v>
       </c>
       <c r="J14" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K14" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02971710681970718</v>
+        <v>0.04439148976979135</v>
       </c>
       <c r="M14" t="n">
-        <v>12.72195979904631</v>
+        <v>12.89674039008337</v>
       </c>
       <c r="N14" t="n">
-        <v>247.5788567520701</v>
+        <v>249.948668950104</v>
       </c>
       <c r="O14" t="n">
-        <v>15.73463875505472</v>
+        <v>15.80976498718763</v>
       </c>
       <c r="P14" t="n">
-        <v>336.3830761967988</v>
+        <v>335.555686513327</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23903,28 +24430,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3263195695715448</v>
+        <v>0.4076190657107624</v>
       </c>
       <c r="J15" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K15" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01972450643175017</v>
+        <v>0.0309108240415189</v>
       </c>
       <c r="M15" t="n">
-        <v>13.48827153943194</v>
+        <v>13.55541753996832</v>
       </c>
       <c r="N15" t="n">
-        <v>274.1247609503974</v>
+        <v>275.858672068358</v>
       </c>
       <c r="O15" t="n">
-        <v>16.55671347068606</v>
+        <v>16.60899371028715</v>
       </c>
       <c r="P15" t="n">
-        <v>339.7079815971553</v>
+        <v>338.8952839763135</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23981,28 +24508,28 @@
         <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1422756278815532</v>
+        <v>0.2137589958745931</v>
       </c>
       <c r="J16" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K16" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003947509946686356</v>
+        <v>0.009050845345948799</v>
       </c>
       <c r="M16" t="n">
-        <v>13.45158497193343</v>
+        <v>13.50527575212897</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0775670647803</v>
+        <v>279.3682037929165</v>
       </c>
       <c r="O16" t="n">
-        <v>16.70561483647879</v>
+        <v>16.71431134665489</v>
       </c>
       <c r="P16" t="n">
-        <v>345.3564521127612</v>
+        <v>344.6656855747063</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24059,28 +24586,28 @@
         <v>0.0379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2734359691257649</v>
+        <v>0.3588448791957018</v>
       </c>
       <c r="J17" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K17" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009140991245235486</v>
+        <v>0.01596530155547238</v>
       </c>
       <c r="M17" t="n">
-        <v>16.68469599302752</v>
+        <v>16.65695313455954</v>
       </c>
       <c r="N17" t="n">
-        <v>430.0805889154772</v>
+        <v>430.9602856780249</v>
       </c>
       <c r="O17" t="n">
-        <v>20.73838443359263</v>
+        <v>20.75958298420334</v>
       </c>
       <c r="P17" t="n">
-        <v>349.1319885013323</v>
+        <v>348.2935170627797</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24137,28 +24664,28 @@
         <v>0.0606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6349292166283689</v>
+        <v>0.7183666951216814</v>
       </c>
       <c r="J18" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K18" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05862943588734848</v>
+        <v>0.07602461200848698</v>
       </c>
       <c r="M18" t="n">
-        <v>14.44974279356975</v>
+        <v>14.39261372693579</v>
       </c>
       <c r="N18" t="n">
-        <v>336.6219459018128</v>
+        <v>334.8236137329892</v>
       </c>
       <c r="O18" t="n">
-        <v>18.34725990173499</v>
+        <v>18.29818607766871</v>
       </c>
       <c r="P18" t="n">
-        <v>339.0133058164087</v>
+        <v>338.1800179748981</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24215,28 +24742,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.054235041352396</v>
+        <v>1.297408959593733</v>
       </c>
       <c r="J19" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K19" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02618183294135823</v>
+        <v>0.04002613774284458</v>
       </c>
       <c r="M19" t="n">
-        <v>40.77170062685614</v>
+        <v>40.46974671358107</v>
       </c>
       <c r="N19" t="n">
-        <v>1993.585784159437</v>
+        <v>1996.249687109604</v>
       </c>
       <c r="O19" t="n">
-        <v>44.64958884647693</v>
+        <v>44.6794101025249</v>
       </c>
       <c r="P19" t="n">
-        <v>291.9637262003162</v>
+        <v>289.4101480756871</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24293,28 +24820,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8490967684482854</v>
+        <v>1.129718648844</v>
       </c>
       <c r="J20" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K20" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02169404463053559</v>
+        <v>0.03831237947210142</v>
       </c>
       <c r="M20" t="n">
-        <v>34.36893823882794</v>
+        <v>34.48679916627916</v>
       </c>
       <c r="N20" t="n">
-        <v>1553.080587159276</v>
+        <v>1577.746036817618</v>
       </c>
       <c r="O20" t="n">
-        <v>39.40914344615062</v>
+        <v>39.72085141103622</v>
       </c>
       <c r="P20" t="n">
-        <v>292.2037848394855</v>
+        <v>289.3053237655126</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24352,7 +24879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U319"/>
+  <dimension ref="A1:U326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52413,6 +52940,703 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-38.46371398195906,174.64392597962953</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-38.4630052090966,174.64419770370645</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-38.46229734577469,174.6444217314723</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-38.461593814660006,174.64442006935735</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-38.4608938077958,174.64423474471047</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-38.460189956569195,174.644249019945</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-38.45949220238385,174.64394578495202</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-38.458788083902164,174.64397325191368</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-38.45808063213784,174.64411311683264</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-38.45737584612507,174.6439644040551</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-38.45667585103157,174.64381377273563</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-38.45598196152864,174.64362825823986</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-38.45528127539955,174.64354901503071</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-38.45457914388908,174.6434922877123</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-38.45387275054161,174.64350215809466</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>-38.4531784196783,174.64335174097513</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>-38.45251383772008,174.6430816390868</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>-38.451810143995026,174.642966348109</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>-38.45113033024167,174.64273397826838</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-38.46371480555239,174.64388313383756</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-38.46300597219618,174.6441580099041</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-38.462298190575545,174.64437779229786</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-38.461595909050814,174.64431113602998</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-38.46089066082738,174.64439842778938</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-38.46018903207846,174.64429710623406</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-38.459489017344225,174.64411146858492</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-38.45878823112655,174.6439655932177</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-38.458081272631944,174.64408490217576</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-38.45737897680886,174.6438948501527</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-38.456685612816656,174.64366098464328</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-38.45599175630446,174.64347495146842</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-38.45528887359749,174.6434300890472</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-38.45458207954921,174.6434463394828</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-38.453883238323954,174.64333800645295</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>-38.453208431326814,174.64309936216722</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-38.45254368102797,174.6429358276308</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>-38.4518342386511,174.6428635350473</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>-38.45116157924588,174.64260063754804</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-38.46371261440719,174.6439971219705</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-38.463002732998085,174.64432649697008</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-38.462295974903526,174.6444930304134</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-38.46159785410376,174.64420996533204</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-38.460891841257116,174.64433703156422</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-38.460187636495384,174.64436969388538</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-38.45948588345959,174.64427447926275</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-38.458785709053465,174.6440967892911</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-38.458081605443525,174.64407024124412</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-38.45737176278646,174.64405512155142</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-38.45666964930748,174.64391083834275</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-38.45597859175056,174.64368100090766</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-38.45528664814543,174.64346492172464</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-38.45458406421068,174.64341527588857</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-38.453880843752124,174.6433754858979</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>-38.4531865856561,174.643283070786</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>-38.45251923903166,174.64305524888587</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>-38.451843939963155,174.64282213895282</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>-38.451155295770434,174.6426274494438</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-38.463707507177425,174.6442627887426</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-38.46300409224482,174.6442557972134</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-38.462298591893834,174.644356918918</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-38.46159540059167,174.64433758246145</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-38.46089388789283,174.64423057847299</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-38.46018939469987,174.64427824503431</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-38.45948309074182,174.64441973401526</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-38.45878549323747,174.644108015498</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-38.45808376867413,174.6439749451837</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-38.457380655415115,174.64385755644537</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-38.45668547626285,174.64366312195835</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-38.455988567021095,174.64352487013537</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>-38.45528722457499,174.6434558994904</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>-38.454583093770616,174.64343046507278</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>-38.453888870495554,174.64324985187992</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>-38.45321491703607,174.64304482086604</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>-38.45251712843584,174.64306556102372</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>-38.45184316797598,174.64282543307218</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>-38.45115933815593,174.64261020039152</t>
+        </is>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-38.46229534797508,174.64452563617735</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-38.460897202574635,174.64405815893255</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-38.46018768287735,174.64436728148485</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-38.45948645827901,174.6442445806088</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-38.45878709389958,174.64402475173333</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-38.45807963194808,174.64415717598416</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-38.45736626329917,174.64417729843677</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-38.45666365216968,174.6440047006793</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>-38.4559675900565,174.643853193219</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>-38.45527862913593,174.64359043354818</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>-38.45458955117325,174.64332939417642</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>-38.45387952507423,174.6433961255467</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>-38.45318406254066,174.64330428846822</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>-38.45249316289764,174.64318265364125</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>-38.451832797606166,174.64286968406833</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>-38.45113667222489,174.64270691683978</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-38.46371563573625,174.64383994436122</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-38.4630050218929,174.6442074412894</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-38.46230062706119,174.64425106275036</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-38.46159566038064,174.6443240701243</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-38.46088837939904,174.64451708414015</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-38.46018846644001,174.64432652674012</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-38.459486954541,174.6442187677218</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-38.458786879348864,174.64403591248197</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>-38.45808405120573,174.64396249866238</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>-38.45738251422604,174.64381625880986</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>-38.45668122153205,174.64372971590544</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>-38.455985994617784,174.64356513314956</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>-38.45528964459869,174.64341802133214</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>-38.45459211708502,174.64328923228896</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>-38.45388820254508,174.64326030667468</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>-38.45321967064082,174.6430048454842</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>-38.45253877902162,174.64295977841854</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>-38.451855408250694,174.64277320297123</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>-38.45119928698968,174.6424397361252</t>
+        </is>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-38.46371997797716,174.64361403015178</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-38.4630127402626,174.64380592782996</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-38.46230666873589,174.64393678479124</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-38.46159943485381,174.64412774026744</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-38.460893721207384,174.64423924858804</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-38.460183240477804,174.64459832609015</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-38.45948458990449,174.64434176077756</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-38.45878015947259,174.64438544678526</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-38.45665262160493,174.64417733902377</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
+      <c r="R326" t="inlineStr"/>
+      <c r="S326" t="inlineStr"/>
+      <c r="T326" t="inlineStr"/>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U326"/>
+  <dimension ref="A1:U328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19902,6 +19902,136 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>355.8</v>
+      </c>
+      <c r="C327" t="n">
+        <v>324.0857142857143</v>
+      </c>
+      <c r="D327" t="n">
+        <v>314.3689655172414</v>
+      </c>
+      <c r="E327" t="n">
+        <v>315.9066666666667</v>
+      </c>
+      <c r="F327" t="n">
+        <v>304.1910526315789</v>
+      </c>
+      <c r="G327" t="n">
+        <v>314.3282352941176</v>
+      </c>
+      <c r="H327" t="n">
+        <v>322.8333333333333</v>
+      </c>
+      <c r="I327" t="n">
+        <v>329.33</v>
+      </c>
+      <c r="J327" t="n">
+        <v>345.2066666666667</v>
+      </c>
+      <c r="K327" t="n">
+        <v>348.78</v>
+      </c>
+      <c r="L327" t="n">
+        <v>368.2733333333333</v>
+      </c>
+      <c r="M327" t="n">
+        <v>354.0881818181818</v>
+      </c>
+      <c r="N327" t="inlineStr"/>
+      <c r="O327" t="n">
+        <v>350.6466666666667</v>
+      </c>
+      <c r="P327" t="n">
+        <v>363.8281818181818</v>
+      </c>
+      <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="n">
+        <v>351.19</v>
+      </c>
+      <c r="S327" t="inlineStr"/>
+      <c r="T327" t="inlineStr"/>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>343.91</v>
+      </c>
+      <c r="C328" t="n">
+        <v>311.1648979591837</v>
+      </c>
+      <c r="D328" t="n">
+        <v>297.0975862068965</v>
+      </c>
+      <c r="E328" t="n">
+        <v>308.0190476190476</v>
+      </c>
+      <c r="F328" t="n">
+        <v>313.4178947368421</v>
+      </c>
+      <c r="G328" t="n">
+        <v>307.9582352941176</v>
+      </c>
+      <c r="H328" t="n">
+        <v>324.7366666666667</v>
+      </c>
+      <c r="I328" t="n">
+        <v>327.9385714285714</v>
+      </c>
+      <c r="J328" t="n">
+        <v>333.7933333333333</v>
+      </c>
+      <c r="K328" t="n">
+        <v>335.77</v>
+      </c>
+      <c r="L328" t="n">
+        <v>338.3880952380952</v>
+      </c>
+      <c r="M328" t="n">
+        <v>337.1763636363636</v>
+      </c>
+      <c r="N328" t="n">
+        <v>347.8233333333333</v>
+      </c>
+      <c r="O328" t="n">
+        <v>353.4133333333333</v>
+      </c>
+      <c r="P328" t="n">
+        <v>363.4063636363636</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>354.0171428571429</v>
+      </c>
+      <c r="R328" t="n">
+        <v>354.61</v>
+      </c>
+      <c r="S328" t="n">
+        <v>363.9933333333333</v>
+      </c>
+      <c r="T328" t="n">
+        <v>362.2963636363637</v>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19913,7 +20043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23261,6 +23391,26 @@
       </c>
       <c r="B334" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -23434,28 +23584,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004264596855598901</v>
+        <v>-0.001198195667123703</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>6.528078758782918e-06</v>
+        <v>5.219804777301107e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>9.387872382279534</v>
+        <v>9.35913134444416</v>
       </c>
       <c r="N2" t="n">
-        <v>150.7188592819583</v>
+        <v>149.8410993796064</v>
       </c>
       <c r="O2" t="n">
-        <v>12.27676094423763</v>
+        <v>12.24095990433783</v>
       </c>
       <c r="P2" t="n">
-        <v>347.8560684556766</v>
+        <v>347.8258329364564</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23506,28 +23656,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.01045648421218768</v>
+        <v>-0.01664362936237779</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>4.598604431416131e-05</v>
+        <v>0.0001177305998092404</v>
       </c>
       <c r="M3" t="n">
-        <v>8.913911207542814</v>
+        <v>8.89535595735623</v>
       </c>
       <c r="N3" t="n">
-        <v>127.2671365653112</v>
+        <v>126.7503385167077</v>
       </c>
       <c r="O3" t="n">
-        <v>11.28127371201104</v>
+        <v>11.25834528324246</v>
       </c>
       <c r="P3" t="n">
-        <v>322.2516369856018</v>
+        <v>322.3136795438028</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23584,28 +23734,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05391572043151983</v>
+        <v>0.05707688949896261</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007710196703781813</v>
+        <v>0.0008739420841619161</v>
       </c>
       <c r="M4" t="n">
-        <v>11.12313833932774</v>
+        <v>11.10500080468844</v>
       </c>
       <c r="N4" t="n">
-        <v>208.2249502905788</v>
+        <v>207.2473995994489</v>
       </c>
       <c r="O4" t="n">
-        <v>14.43000174257019</v>
+        <v>14.39608973296044</v>
       </c>
       <c r="P4" t="n">
-        <v>302.0850622059027</v>
+        <v>302.0544509907421</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23662,28 +23812,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2857515680629187</v>
+        <v>0.2918632934012579</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0253889247809721</v>
+        <v>0.02678535885071054</v>
       </c>
       <c r="M5" t="n">
-        <v>9.498941820701649</v>
+        <v>9.453037684449562</v>
       </c>
       <c r="N5" t="n">
-        <v>166.4238667401949</v>
+        <v>165.4337980545572</v>
       </c>
       <c r="O5" t="n">
-        <v>12.90053745935397</v>
+        <v>12.86210706123057</v>
       </c>
       <c r="P5" t="n">
-        <v>300.3501790870919</v>
+        <v>300.2890312640203</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23734,28 +23884,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4969931719119534</v>
+        <v>0.511015213425297</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02913519668066233</v>
+        <v>0.03115673443813605</v>
       </c>
       <c r="M6" t="n">
-        <v>17.27457487728544</v>
+        <v>17.20037450342841</v>
       </c>
       <c r="N6" t="n">
-        <v>419.7513861292391</v>
+        <v>417.2227990551219</v>
       </c>
       <c r="O6" t="n">
-        <v>20.48783507667999</v>
+        <v>20.42603238651897</v>
       </c>
       <c r="P6" t="n">
-        <v>287.0879689928622</v>
+        <v>286.9441102191134</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23812,28 +23962,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4482444644383502</v>
+        <v>0.4451618321347862</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K7" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0534815258311484</v>
+        <v>0.05355512346279223</v>
       </c>
       <c r="M7" t="n">
-        <v>10.02240022612448</v>
+        <v>9.96700965799759</v>
       </c>
       <c r="N7" t="n">
-        <v>191.7998435587858</v>
+        <v>190.324762740516</v>
       </c>
       <c r="O7" t="n">
-        <v>13.84918205378158</v>
+        <v>13.79582410516008</v>
       </c>
       <c r="P7" t="n">
-        <v>301.772176358609</v>
+        <v>301.8026198427767</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23890,28 +24040,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2730746716027707</v>
+        <v>0.2789344569544352</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K8" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02310396001880388</v>
+        <v>0.02441438219407166</v>
       </c>
       <c r="M8" t="n">
-        <v>10.06128640686895</v>
+        <v>10.01147074451103</v>
       </c>
       <c r="N8" t="n">
-        <v>169.7823569419374</v>
+        <v>168.5823555718044</v>
       </c>
       <c r="O8" t="n">
-        <v>13.03005590709178</v>
+        <v>12.98392681632966</v>
       </c>
       <c r="P8" t="n">
-        <v>312.8311164831348</v>
+        <v>312.7730495039094</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23968,28 +24118,28 @@
         <v>0.0848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2867231086145683</v>
+        <v>0.2919162743021536</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01993460371988998</v>
+        <v>0.02092795138107706</v>
       </c>
       <c r="M9" t="n">
-        <v>11.15801619567838</v>
+        <v>11.09481730371632</v>
       </c>
       <c r="N9" t="n">
-        <v>214.7898656746871</v>
+        <v>213.1964402940673</v>
       </c>
       <c r="O9" t="n">
-        <v>14.65571102590001</v>
+        <v>14.60124790194548</v>
       </c>
       <c r="P9" t="n">
-        <v>317.7570206437224</v>
+        <v>317.7044595536896</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24046,28 +24196,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4491083499241376</v>
+        <v>0.45651312389487</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K10" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05429855791840998</v>
+        <v>0.05666341799198016</v>
       </c>
       <c r="M10" t="n">
-        <v>10.78531044146073</v>
+        <v>10.74214738884608</v>
       </c>
       <c r="N10" t="n">
-        <v>188.2287365233354</v>
+        <v>187.1663353159655</v>
       </c>
       <c r="O10" t="n">
-        <v>13.7196478279632</v>
+        <v>13.68087480082928</v>
       </c>
       <c r="P10" t="n">
-        <v>323.1172376003588</v>
+        <v>323.0431675455661</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24124,28 +24274,28 @@
         <v>0.0542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3889970822846159</v>
+        <v>0.3877611970188627</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K11" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03770516114445821</v>
+        <v>0.03797330373465124</v>
       </c>
       <c r="M11" t="n">
-        <v>11.30125569761787</v>
+        <v>11.26162533395669</v>
       </c>
       <c r="N11" t="n">
-        <v>211.271158209984</v>
+        <v>209.8689658426216</v>
       </c>
       <c r="O11" t="n">
-        <v>14.53516970007519</v>
+        <v>14.48685493275271</v>
       </c>
       <c r="P11" t="n">
-        <v>333.221128327825</v>
+        <v>333.2333401436304</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24196,28 +24346,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4803051162716647</v>
+        <v>0.4940985672035511</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04648466449318778</v>
+        <v>0.04928109306597894</v>
       </c>
       <c r="M12" t="n">
-        <v>12.70025544620893</v>
+        <v>12.71736055344045</v>
       </c>
       <c r="N12" t="n">
-        <v>257.2672661227795</v>
+        <v>257.7300056579456</v>
       </c>
       <c r="O12" t="n">
-        <v>16.03955317715489</v>
+        <v>16.05397164747545</v>
       </c>
       <c r="P12" t="n">
-        <v>331.3759584754535</v>
+        <v>331.2396477751883</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24274,28 +24424,28 @@
         <v>0.0641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3181389276645562</v>
+        <v>0.3222694236378206</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01853906282377138</v>
+        <v>0.01924953684333686</v>
       </c>
       <c r="M13" t="n">
-        <v>13.13708690257713</v>
+        <v>13.09711799067716</v>
       </c>
       <c r="N13" t="n">
-        <v>288.8062512178185</v>
+        <v>287.1585319663424</v>
       </c>
       <c r="O13" t="n">
-        <v>16.99430055100293</v>
+        <v>16.94575262318975</v>
       </c>
       <c r="P13" t="n">
-        <v>334.7089538979912</v>
+        <v>334.668017837666</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24352,28 +24502,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4626573879703094</v>
+        <v>0.4630664346299359</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K14" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04439148976979135</v>
+        <v>0.04479981760683316</v>
       </c>
       <c r="M14" t="n">
-        <v>12.89674039008337</v>
+        <v>12.84579419858331</v>
       </c>
       <c r="N14" t="n">
-        <v>249.948668950104</v>
+        <v>248.9169834324374</v>
       </c>
       <c r="O14" t="n">
-        <v>15.80976498718763</v>
+        <v>15.77710313816949</v>
       </c>
       <c r="P14" t="n">
-        <v>335.555686513327</v>
+        <v>335.551649972269</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24430,28 +24580,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4076190657107624</v>
+        <v>0.4117304640488442</v>
       </c>
       <c r="J15" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0309108240415189</v>
+        <v>0.03196429613725094</v>
       </c>
       <c r="M15" t="n">
-        <v>13.55541753996832</v>
+        <v>13.46955507964367</v>
       </c>
       <c r="N15" t="n">
-        <v>275.858672068358</v>
+        <v>273.7618963471584</v>
       </c>
       <c r="O15" t="n">
-        <v>16.60899371028715</v>
+        <v>16.54575161022183</v>
       </c>
       <c r="P15" t="n">
-        <v>338.8952839763135</v>
+        <v>338.8539543695142</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24508,28 +24658,28 @@
         <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2137589958745931</v>
+        <v>0.2337916504339583</v>
       </c>
       <c r="J16" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K16" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009050845345948799</v>
+        <v>0.01091217761966956</v>
       </c>
       <c r="M16" t="n">
-        <v>13.50527575212897</v>
+        <v>13.50165143204678</v>
       </c>
       <c r="N16" t="n">
-        <v>279.3682037929165</v>
+        <v>278.5346852248749</v>
       </c>
       <c r="O16" t="n">
-        <v>16.71431134665489</v>
+        <v>16.68935844257876</v>
       </c>
       <c r="P16" t="n">
-        <v>344.6656855747063</v>
+        <v>344.4710174736969</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24586,28 +24736,28 @@
         <v>0.0379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3588448791957018</v>
+        <v>0.3562623158289903</v>
       </c>
       <c r="J17" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K17" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01596530155547238</v>
+        <v>0.01585907964901856</v>
       </c>
       <c r="M17" t="n">
-        <v>16.65695313455954</v>
+        <v>16.60409996317038</v>
       </c>
       <c r="N17" t="n">
-        <v>430.9602856780249</v>
+        <v>429.2260498765829</v>
       </c>
       <c r="O17" t="n">
-        <v>20.75958298420334</v>
+        <v>20.71777135399903</v>
       </c>
       <c r="P17" t="n">
-        <v>348.2935170627797</v>
+        <v>348.3190217859374</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24664,28 +24814,28 @@
         <v>0.0606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7183666951216814</v>
+        <v>0.7122076714524532</v>
       </c>
       <c r="J18" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K18" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07602461200848698</v>
+        <v>0.07602554789129323</v>
       </c>
       <c r="M18" t="n">
-        <v>14.39261372693579</v>
+        <v>14.29245086790339</v>
       </c>
       <c r="N18" t="n">
-        <v>334.8236137329892</v>
+        <v>331.7312605428235</v>
       </c>
       <c r="O18" t="n">
-        <v>18.29818607766871</v>
+        <v>18.2134911684395</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1800179748981</v>
+        <v>338.2418947355284</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24742,28 +24892,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.297408959593733</v>
+        <v>1.333131812010221</v>
       </c>
       <c r="J19" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K19" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04002613774284458</v>
+        <v>0.04235084436207237</v>
       </c>
       <c r="M19" t="n">
-        <v>40.46974671358107</v>
+        <v>40.40570063950163</v>
       </c>
       <c r="N19" t="n">
-        <v>1996.249687109604</v>
+        <v>1995.010224808309</v>
       </c>
       <c r="O19" t="n">
-        <v>44.6794101025249</v>
+        <v>44.66553732810464</v>
       </c>
       <c r="P19" t="n">
-        <v>289.4101480756871</v>
+        <v>289.0327400850299</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24820,28 +24970,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.129718648844</v>
+        <v>1.1702989479543</v>
       </c>
       <c r="J20" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03831237947210142</v>
+        <v>0.04114674575276034</v>
       </c>
       <c r="M20" t="n">
-        <v>34.48679916627916</v>
+        <v>34.4824003658717</v>
       </c>
       <c r="N20" t="n">
-        <v>1577.746036817618</v>
+        <v>1579.372703874718</v>
       </c>
       <c r="O20" t="n">
-        <v>39.72085141103622</v>
+        <v>39.74132237199358</v>
       </c>
       <c r="P20" t="n">
-        <v>289.3053237655126</v>
+        <v>288.8838108059876</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24879,7 +25029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U326"/>
+  <dimension ref="A1:U328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53637,6 +53787,204 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-38.46371488923213,174.6438787805217</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-38.46300457525258,174.64423067354883</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-38.46229909870099,174.6443305585723</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-38.461596094058,174.64430151319465</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-38.460890163514044,174.64442429342782</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-38.46018903920397,174.64429673561384</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-38.45948754843285,174.64418787626312</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-38.45878560838142,174.6441020260057</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-38.45808527144981,174.64390874190596</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-38.45738106219216,174.6438485190129</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-38.45669183691953,174.64356356548592</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-38.455979726068264,174.64366324697878</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr"/>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-38.45457367383321,174.64357790291862</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-38.45388151104951,174.64336504148778</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>-38.45247702694469,174.6432614915225</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr"/>
+      <c r="T327" t="inlineStr"/>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-38.463712270860825,174.6440149934758</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-38.463001729447505,174.64437869414886</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-38.462295294502695,174.64452841718747</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-38.46159435680533,174.6443918718337</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-38.46089219573911,174.64431859400526</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-38.46018763623626,174.64436970736247</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-38.459487967602534,174.6441660727732</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-38.45878530195943,174.64411796525567</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-38.4580823039952,174.64403946855887</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-38.457374363155225,174.64399735063785</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-38.45667003014179,174.6439048777928</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-38.45596738574169,174.64385639100146</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-38.455273387642436,174.64367247113432</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-38.45457569258051,174.6435463063791</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>-38.45388120327032,174.6433698587903</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>-38.45317090802124,174.643414908471</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>-38.45248478854885,174.64322356950828</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>-38.45183186264233,174.64287367361158</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>-38.45115105687741,174.6426455369895</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U328"/>
+  <dimension ref="A1:U330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20032,6 +20032,124 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>348.57</v>
+      </c>
+      <c r="C329" t="n">
+        <v>318.1255102040816</v>
+      </c>
+      <c r="D329" t="n">
+        <v>309.6748275862069</v>
+      </c>
+      <c r="E329" t="n">
+        <v>313.3480952380953</v>
+      </c>
+      <c r="F329" t="n">
+        <v>315.9289473684211</v>
+      </c>
+      <c r="G329" t="n">
+        <v>303.83</v>
+      </c>
+      <c r="H329" t="n">
+        <v>316.2133333333334</v>
+      </c>
+      <c r="I329" t="n">
+        <v>316.7971428571428</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr"/>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr"/>
+      <c r="R329" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="S329" t="n">
+        <v>263.7066666666667</v>
+      </c>
+      <c r="T329" t="n">
+        <v>267.1718181818182</v>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>335.8200000000001</v>
+      </c>
+      <c r="C330" t="n">
+        <v>309.1861224489796</v>
+      </c>
+      <c r="D330" t="n">
+        <v>282.7434482758621</v>
+      </c>
+      <c r="E330" t="n">
+        <v>302.9138095238095</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="n">
+        <v>290.7023529411765</v>
+      </c>
+      <c r="H330" t="n">
+        <v>319.7633333333333</v>
+      </c>
+      <c r="I330" t="n">
+        <v>330.7757142857143</v>
+      </c>
+      <c r="J330" t="n">
+        <v>344.4466666666667</v>
+      </c>
+      <c r="K330" t="n">
+        <v>338.94</v>
+      </c>
+      <c r="L330" t="n">
+        <v>345.567619047619</v>
+      </c>
+      <c r="M330" t="n">
+        <v>359.4890909090909</v>
+      </c>
+      <c r="N330" t="n">
+        <v>363.0066666666667</v>
+      </c>
+      <c r="O330" t="n">
+        <v>358.8466666666667</v>
+      </c>
+      <c r="P330" t="n">
+        <v>363.6790909090909</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>368.7414285714286</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
+      <c r="S330" t="n">
+        <v>253.2866666666666</v>
+      </c>
+      <c r="T330" t="n">
+        <v>259.5790909090909</v>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20043,7 +20161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23411,6 +23529,26 @@
       </c>
       <c r="B336" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -23584,28 +23722,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001198195667123703</v>
+        <v>-0.009270497405903716</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>5.219804777301107e-07</v>
+        <v>3.159018398901647e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>9.35913134444416</v>
+        <v>9.339651273002</v>
       </c>
       <c r="N2" t="n">
-        <v>149.8410993796064</v>
+        <v>149.2251116600915</v>
       </c>
       <c r="O2" t="n">
-        <v>12.24095990433783</v>
+        <v>12.21577306845913</v>
       </c>
       <c r="P2" t="n">
-        <v>347.8258329364564</v>
+        <v>347.905994404488</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23656,28 +23794,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.01664362936237779</v>
+        <v>-0.02816384261382517</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001177305998092404</v>
+        <v>0.0003400155144513972</v>
       </c>
       <c r="M3" t="n">
-        <v>8.89535595735623</v>
+        <v>8.892470887916206</v>
       </c>
       <c r="N3" t="n">
-        <v>126.7503385167077</v>
+        <v>126.4405584476022</v>
       </c>
       <c r="O3" t="n">
-        <v>11.25834528324246</v>
+        <v>11.24457906938282</v>
       </c>
       <c r="P3" t="n">
-        <v>322.3136795438028</v>
+        <v>322.4296872122128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23734,28 +23872,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05707688949896261</v>
+        <v>0.04703710305550685</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008739420841619161</v>
+        <v>0.0005970714782678188</v>
       </c>
       <c r="M4" t="n">
-        <v>11.10500080468844</v>
+        <v>11.12035453768004</v>
       </c>
       <c r="N4" t="n">
-        <v>207.2473995994489</v>
+        <v>207.4451023063037</v>
       </c>
       <c r="O4" t="n">
-        <v>14.39608973296044</v>
+        <v>14.40295463807005</v>
       </c>
       <c r="P4" t="n">
-        <v>302.0544509907421</v>
+        <v>302.1524731302723</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23812,28 +23950,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2918632934012579</v>
+        <v>0.2924318497401465</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02678535885071054</v>
+        <v>0.02722387751892252</v>
       </c>
       <c r="M5" t="n">
-        <v>9.453037684449562</v>
+        <v>9.420876094298885</v>
       </c>
       <c r="N5" t="n">
-        <v>165.4337980545572</v>
+        <v>164.4076888078669</v>
       </c>
       <c r="O5" t="n">
-        <v>12.86210706123057</v>
+        <v>12.82215616844011</v>
       </c>
       <c r="P5" t="n">
-        <v>300.2890312640203</v>
+        <v>300.2833558949175</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23884,28 +24022,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.511015213425297</v>
+        <v>0.5232571106480596</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03115673443813605</v>
+        <v>0.03278471833646623</v>
       </c>
       <c r="M6" t="n">
-        <v>17.20037450342841</v>
+        <v>17.18686378366432</v>
       </c>
       <c r="N6" t="n">
-        <v>417.2227990551219</v>
+        <v>416.5700207686141</v>
       </c>
       <c r="O6" t="n">
-        <v>20.42603238651897</v>
+        <v>20.41004705454189</v>
       </c>
       <c r="P6" t="n">
-        <v>286.9441102191134</v>
+        <v>286.8180632354272</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23962,28 +24100,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4451618321347862</v>
+        <v>0.4210319253054026</v>
       </c>
       <c r="J7" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05355512346279223</v>
+        <v>0.04832184363772196</v>
       </c>
       <c r="M7" t="n">
-        <v>9.96700965799759</v>
+        <v>10.02507147611815</v>
       </c>
       <c r="N7" t="n">
-        <v>190.324762740516</v>
+        <v>191.1351631593901</v>
       </c>
       <c r="O7" t="n">
-        <v>13.79582410516008</v>
+        <v>13.82516412775596</v>
       </c>
       <c r="P7" t="n">
-        <v>301.8026198427767</v>
+        <v>302.0418703763712</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24040,28 +24178,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2789344569544352</v>
+        <v>0.2762409980316911</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K8" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02441438219407166</v>
+        <v>0.02429374836814735</v>
       </c>
       <c r="M8" t="n">
-        <v>10.01147074451103</v>
+        <v>9.949013696732383</v>
       </c>
       <c r="N8" t="n">
-        <v>168.5823555718044</v>
+        <v>167.3217841033689</v>
       </c>
       <c r="O8" t="n">
-        <v>12.98392681632966</v>
+        <v>12.93529219242337</v>
       </c>
       <c r="P8" t="n">
-        <v>312.7730495039094</v>
+        <v>312.7998469709866</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24118,28 +24256,28 @@
         <v>0.0848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2919162743021536</v>
+        <v>0.2900169510887285</v>
       </c>
       <c r="J9" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K9" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02092795138107706</v>
+        <v>0.02091020710319547</v>
       </c>
       <c r="M9" t="n">
-        <v>11.09481730371632</v>
+        <v>11.06386411513152</v>
       </c>
       <c r="N9" t="n">
-        <v>213.1964402940673</v>
+        <v>211.9209698403839</v>
       </c>
       <c r="O9" t="n">
-        <v>14.60124790194548</v>
+        <v>14.55750561876532</v>
       </c>
       <c r="P9" t="n">
-        <v>317.7044595536896</v>
+        <v>317.7237167024762</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24196,28 +24334,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.45651312389487</v>
+        <v>0.4637612388494979</v>
       </c>
       <c r="J10" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K10" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05666341799198016</v>
+        <v>0.05866744222723486</v>
       </c>
       <c r="M10" t="n">
-        <v>10.74214738884608</v>
+        <v>10.73637614220925</v>
       </c>
       <c r="N10" t="n">
-        <v>187.1663353159655</v>
+        <v>186.7932862454724</v>
       </c>
       <c r="O10" t="n">
-        <v>13.68087480082928</v>
+        <v>13.66723403785391</v>
       </c>
       <c r="P10" t="n">
-        <v>323.0431675455661</v>
+        <v>322.9702239329735</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24274,28 +24412,28 @@
         <v>0.0542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3877611970188627</v>
+        <v>0.3846129103259714</v>
       </c>
       <c r="J11" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K11" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03797330373465124</v>
+        <v>0.03764734093748112</v>
       </c>
       <c r="M11" t="n">
-        <v>11.26162533395669</v>
+        <v>11.23273217065408</v>
       </c>
       <c r="N11" t="n">
-        <v>209.8689658426216</v>
+        <v>209.0691799579193</v>
       </c>
       <c r="O11" t="n">
-        <v>14.48685493275271</v>
+        <v>14.45922473571523</v>
       </c>
       <c r="P11" t="n">
-        <v>333.2333401436304</v>
+        <v>333.2644660069267</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24346,28 +24484,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4940985672035511</v>
+        <v>0.4953354097150815</v>
       </c>
       <c r="J12" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K12" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04928109306597894</v>
+        <v>0.04985058396362707</v>
       </c>
       <c r="M12" t="n">
-        <v>12.71736055344045</v>
+        <v>12.67502047693551</v>
       </c>
       <c r="N12" t="n">
-        <v>257.7300056579456</v>
+        <v>256.7466393394001</v>
       </c>
       <c r="O12" t="n">
-        <v>16.05397164747545</v>
+        <v>16.02331549147679</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2396477751883</v>
+        <v>331.227347159643</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24424,28 +24562,28 @@
         <v>0.0641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3222694236378206</v>
+        <v>0.3343015114685819</v>
       </c>
       <c r="J13" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K13" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01924953684333686</v>
+        <v>0.02075644530762111</v>
       </c>
       <c r="M13" t="n">
-        <v>13.09711799067716</v>
+        <v>13.1019926428741</v>
       </c>
       <c r="N13" t="n">
-        <v>287.1585319663424</v>
+        <v>287.1033886149933</v>
       </c>
       <c r="O13" t="n">
-        <v>16.94575262318975</v>
+        <v>16.94412548982665</v>
       </c>
       <c r="P13" t="n">
-        <v>334.668017837666</v>
+        <v>334.5479209045975</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24502,28 +24640,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4630664346299359</v>
+        <v>0.4750505972905189</v>
       </c>
       <c r="J14" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04479981760683316</v>
+        <v>0.04720927894481053</v>
       </c>
       <c r="M14" t="n">
-        <v>12.84579419858331</v>
+        <v>12.86083208642093</v>
       </c>
       <c r="N14" t="n">
-        <v>248.9169834324374</v>
+        <v>248.8910501396397</v>
       </c>
       <c r="O14" t="n">
-        <v>15.77710313816949</v>
+        <v>15.77628125191864</v>
       </c>
       <c r="P14" t="n">
-        <v>335.551649972269</v>
+        <v>335.4328338164955</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24580,28 +24718,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4117304640488442</v>
+        <v>0.4187000450668413</v>
       </c>
       <c r="J15" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03196429613725094</v>
+        <v>0.03321465677797386</v>
       </c>
       <c r="M15" t="n">
-        <v>13.46955507964367</v>
+        <v>13.45164350146445</v>
       </c>
       <c r="N15" t="n">
-        <v>273.7618963471584</v>
+        <v>273.0392748978547</v>
       </c>
       <c r="O15" t="n">
-        <v>16.54575161022183</v>
+        <v>16.52390011159153</v>
       </c>
       <c r="P15" t="n">
-        <v>338.8539543695142</v>
+        <v>338.7835459690702</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24658,28 +24796,28 @@
         <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2337916504339583</v>
+        <v>0.2435866656734553</v>
       </c>
       <c r="J16" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K16" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01091217761966956</v>
+        <v>0.01189238772411727</v>
       </c>
       <c r="M16" t="n">
-        <v>13.50165143204678</v>
+        <v>13.49849582305146</v>
       </c>
       <c r="N16" t="n">
-        <v>278.5346852248749</v>
+        <v>278.1016242642661</v>
       </c>
       <c r="O16" t="n">
-        <v>16.68935844257876</v>
+        <v>16.676379231244</v>
       </c>
       <c r="P16" t="n">
-        <v>344.4710174736969</v>
+        <v>344.3752987105651</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24736,28 +24874,28 @@
         <v>0.0379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3562623158289903</v>
+        <v>0.3649156235009971</v>
       </c>
       <c r="J17" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K17" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01585907964901856</v>
+        <v>0.01673338682680559</v>
       </c>
       <c r="M17" t="n">
-        <v>16.60409996317038</v>
+        <v>16.57524279939837</v>
       </c>
       <c r="N17" t="n">
-        <v>429.2260498765829</v>
+        <v>427.9840235252182</v>
       </c>
       <c r="O17" t="n">
-        <v>20.71777135399903</v>
+        <v>20.68777473594534</v>
       </c>
       <c r="P17" t="n">
-        <v>348.3190217859374</v>
+        <v>348.2331610863059</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24814,28 +24952,28 @@
         <v>0.0606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7122076714524532</v>
+        <v>0.6138303710685674</v>
       </c>
       <c r="J18" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07602554789129323</v>
+        <v>0.04962760160479884</v>
       </c>
       <c r="M18" t="n">
-        <v>14.29245086790339</v>
+        <v>14.84589660205684</v>
       </c>
       <c r="N18" t="n">
-        <v>331.7312605428235</v>
+        <v>389.7951280584812</v>
       </c>
       <c r="O18" t="n">
-        <v>18.2134911684395</v>
+        <v>19.74322992973746</v>
       </c>
       <c r="P18" t="n">
-        <v>338.2418947355284</v>
+        <v>339.2347066306091</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24892,28 +25030,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.333131812010221</v>
+        <v>1.224539976845515</v>
       </c>
       <c r="J19" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K19" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04235084436207237</v>
+        <v>0.03592507992393168</v>
       </c>
       <c r="M19" t="n">
-        <v>40.40570063950163</v>
+        <v>40.80976898130912</v>
       </c>
       <c r="N19" t="n">
-        <v>1995.010224808309</v>
+        <v>2013.197127053213</v>
       </c>
       <c r="O19" t="n">
-        <v>44.66553732810464</v>
+        <v>44.86866531392719</v>
       </c>
       <c r="P19" t="n">
-        <v>289.0327400850299</v>
+        <v>290.1844471445854</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24970,28 +25108,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.1702989479543</v>
+        <v>1.07107516534328</v>
       </c>
       <c r="J20" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K20" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04114674575276034</v>
+        <v>0.03474569491034096</v>
       </c>
       <c r="M20" t="n">
-        <v>34.4824003658717</v>
+        <v>34.7727855717507</v>
       </c>
       <c r="N20" t="n">
-        <v>1579.372703874718</v>
+        <v>1591.950809357209</v>
       </c>
       <c r="O20" t="n">
-        <v>39.74132237199358</v>
+        <v>39.89925825572712</v>
       </c>
       <c r="P20" t="n">
-        <v>288.8838108059876</v>
+        <v>289.9181935201655</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25029,7 +25167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U328"/>
+  <dimension ref="A1:U330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28999,7 +29137,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>-38.45456079743085,174.6437794354964</t>
+          <t>-38.45456079743086,174.6437794354964</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -33587,7 +33725,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>-38.45179514161713,174.64303036375287</t>
+          <t>-38.45179514161714,174.64303036375287</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
@@ -38823,7 +38961,7 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>-38.45113131510925,174.64272977581152</t>
+          <t>-38.45113131510926,174.64272977581152</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
@@ -39048,7 +39186,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>-38.45385996669246,174.64370224216563</t>
+          <t>-38.45385996669247,174.64370224216563</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
@@ -53985,6 +54123,180 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.46371329708743,174.643961608081</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-38.46300326254303,174.6442989535237</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-38.46229806480204,174.64438433399292</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.46159553053878,174.64433082356535</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-38.46089274878553,174.64428982827746</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-38.460186726984276,174.64441699849792</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-38.45948609048356,174.64426371116528</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-38.45878284830321,174.6442455938009</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr"/>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr"/>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>-38.452234209710845,174.6444478253088</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>-38.4515737903525,174.64397485664261</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>-38.45090627017769,174.64369002911394</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-38.46371048922085,174.64410767326493</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-38.463001293606446,174.64440136295786</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-38.462292132602684,174.64469285624992</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-38.461593232336554,174.64445035619187</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-38.460183835467284,174.64456738267899</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-38.45948687232046,174.6442230444132</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-38.45878592675597,174.64408546489568</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-38.458085073855145,174.64391744683545</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-38.45737599545138,174.64396108651715</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-38.45667526901526,174.6438228821544</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-38.45598366697229,174.64360156504893</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-38.45528446646276,174.64349906916667</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>-38.45457965708364,174.64348425533777</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>-38.4538814022655,174.64336674415503</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>-38.4531907446504,174.6432480964032</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr"/>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>-38.451546975503064,174.64408927145436</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>-38.45088673120145,174.64377339890666</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U330"/>
+  <dimension ref="A1:U331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20103,7 +20103,9 @@
       <c r="E330" t="n">
         <v>302.9138095238095</v>
       </c>
-      <c r="F330" t="inlineStr"/>
+      <c r="F330" t="n">
+        <v>268.3242105263158</v>
+      </c>
       <c r="G330" t="n">
         <v>290.7023529411765</v>
       </c>
@@ -20147,6 +20149,47 @@
       <c r="U330" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="C331" t="n">
+        <v>308.4177551020408</v>
+      </c>
+      <c r="D331" t="n">
+        <v>282.3524137931034</v>
+      </c>
+      <c r="E331" t="n">
+        <v>300.0590476190476</v>
+      </c>
+      <c r="F331" t="n">
+        <v>269.0794736842105</v>
+      </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
+      <c r="S331" t="inlineStr"/>
+      <c r="T331" t="inlineStr"/>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23549,6 +23592,16 @@
       </c>
       <c r="B338" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -23722,28 +23775,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009270497405903716</v>
+        <v>-0.01851140816267887</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>3.159018398901647e-05</v>
+        <v>0.0001263113479940126</v>
       </c>
       <c r="M2" t="n">
-        <v>9.339651273002</v>
+        <v>9.357619623453914</v>
       </c>
       <c r="N2" t="n">
-        <v>149.2251116600915</v>
+        <v>149.289007512851</v>
       </c>
       <c r="O2" t="n">
-        <v>12.21577306845913</v>
+        <v>12.21838808979527</v>
       </c>
       <c r="P2" t="n">
-        <v>347.905994404488</v>
+        <v>347.9978621590748</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23794,28 +23847,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.02816384261382517</v>
+        <v>-0.03738924156236489</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003400155144513972</v>
+        <v>0.0006000699037412849</v>
       </c>
       <c r="M3" t="n">
-        <v>8.892470887916206</v>
+        <v>8.912180273180743</v>
       </c>
       <c r="N3" t="n">
-        <v>126.4405584476022</v>
+        <v>126.6253533603236</v>
       </c>
       <c r="O3" t="n">
-        <v>11.24457906938282</v>
+        <v>11.2527931359429</v>
       </c>
       <c r="P3" t="n">
-        <v>322.4296872122128</v>
+        <v>322.5227232683876</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23872,28 +23925,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04703710305550685</v>
+        <v>0.03272915531796243</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005970714782678188</v>
+        <v>0.0002889031485110438</v>
       </c>
       <c r="M4" t="n">
-        <v>11.12035453768004</v>
+        <v>11.15323265450825</v>
       </c>
       <c r="N4" t="n">
-        <v>207.4451023063037</v>
+        <v>208.3051133615018</v>
       </c>
       <c r="O4" t="n">
-        <v>14.40295463807005</v>
+        <v>14.43277912813405</v>
       </c>
       <c r="P4" t="n">
-        <v>302.1524731302723</v>
+        <v>302.2922639756848</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23950,28 +24003,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2924318497401465</v>
+        <v>0.2871654206827214</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02722387751892252</v>
+        <v>0.02642129467978438</v>
       </c>
       <c r="M5" t="n">
-        <v>9.420876094298885</v>
+        <v>9.420416912329506</v>
       </c>
       <c r="N5" t="n">
-        <v>164.4076888078669</v>
+        <v>164.0145455356649</v>
       </c>
       <c r="O5" t="n">
-        <v>12.82215616844011</v>
+        <v>12.80681637002986</v>
       </c>
       <c r="P5" t="n">
-        <v>300.2833558949175</v>
+        <v>300.3364118936299</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24022,28 +24075,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.5232571106480596</v>
+        <v>0.4760578234110158</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K6" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03278471833646623</v>
+        <v>0.02720785823251848</v>
       </c>
       <c r="M6" t="n">
-        <v>17.18686378366432</v>
+        <v>17.32672503526322</v>
       </c>
       <c r="N6" t="n">
-        <v>416.5700207686141</v>
+        <v>420.8969892865541</v>
       </c>
       <c r="O6" t="n">
-        <v>20.41004705454189</v>
+        <v>20.51577415762208</v>
       </c>
       <c r="P6" t="n">
-        <v>286.8180632354272</v>
+        <v>287.3048460409776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24103,7 +24156,7 @@
         <v>0.4210319253054026</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K7" t="n">
         <v>243</v>
@@ -24181,7 +24234,7 @@
         <v>0.2762409980316911</v>
       </c>
       <c r="J8" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K8" t="n">
         <v>257</v>
@@ -24259,7 +24312,7 @@
         <v>0.2900169510887285</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K9" t="n">
         <v>255</v>
@@ -24337,7 +24390,7 @@
         <v>0.4637612388494979</v>
       </c>
       <c r="J10" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K10" t="n">
         <v>248</v>
@@ -24415,7 +24468,7 @@
         <v>0.3846129103259714</v>
       </c>
       <c r="J11" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K11" t="n">
         <v>241</v>
@@ -24487,7 +24540,7 @@
         <v>0.4953354097150815</v>
       </c>
       <c r="J12" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K12" t="n">
         <v>259</v>
@@ -24565,7 +24618,7 @@
         <v>0.3343015114685819</v>
       </c>
       <c r="J13" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K13" t="n">
         <v>255</v>
@@ -24643,7 +24696,7 @@
         <v>0.4750505972905189</v>
       </c>
       <c r="J14" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K14" t="n">
         <v>243</v>
@@ -24721,7 +24774,7 @@
         <v>0.4187000450668413</v>
       </c>
       <c r="J15" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K15" t="n">
         <v>255</v>
@@ -24799,7 +24852,7 @@
         <v>0.2435866656734553</v>
       </c>
       <c r="J16" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K16" t="n">
         <v>242</v>
@@ -24877,7 +24930,7 @@
         <v>0.3649156235009971</v>
       </c>
       <c r="J17" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K17" t="n">
         <v>243</v>
@@ -24955,7 +25008,7 @@
         <v>0.6138303710685674</v>
       </c>
       <c r="J18" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K18" t="n">
         <v>208</v>
@@ -25033,7 +25086,7 @@
         <v>1.224539976845515</v>
       </c>
       <c r="J19" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K19" t="n">
         <v>229</v>
@@ -25111,7 +25164,7 @@
         <v>1.07107516534328</v>
       </c>
       <c r="J20" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K20" t="n">
         <v>224</v>
@@ -25167,7 +25220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U330"/>
+  <dimension ref="A1:U331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54224,7 +54277,11 @@
           <t>-38.461593232336554,174.64445035619187</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-38.46088226288618,174.64483517112953</t>
+        </is>
+      </c>
       <c r="G330" t="inlineStr">
         <is>
           <t>-38.460183835467284,174.64456738267899</t>
@@ -54294,6 +54351,57 @@
       <c r="U330" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-38.46371024916734,174.6441201604053</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-38.46300112436621,174.64441016535727</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-38.46229204646319,174.6446973358877</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-38.46159260354011,174.64448305964433</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-38.460882429267855,174.64482651910666</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
+      <c r="S331" t="inlineStr"/>
+      <c r="T331" t="inlineStr"/>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20193,6 +20193,51 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>349.34</v>
+      </c>
+      <c r="C332" t="n">
+        <v>322.1985714285714</v>
+      </c>
+      <c r="D332" t="n">
+        <v>291.3451724137931</v>
+      </c>
+      <c r="E332" t="n">
+        <v>308.6033333333333</v>
+      </c>
+      <c r="F332" t="n">
+        <v>283.2168421052632</v>
+      </c>
+      <c r="G332" t="n">
+        <v>310.0005882352941</v>
+      </c>
+      <c r="H332" t="n">
+        <v>336.8666666666667</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr"/>
+      <c r="R332" t="inlineStr"/>
+      <c r="S332" t="inlineStr"/>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20204,7 +20249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23602,6 +23647,16 @@
       </c>
       <c r="B339" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -23775,28 +23830,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01851140816267887</v>
+        <v>-0.0172152012064441</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001263113479940126</v>
+        <v>0.0001100329218461926</v>
       </c>
       <c r="M2" t="n">
-        <v>9.357619623453914</v>
+        <v>9.327656564559765</v>
       </c>
       <c r="N2" t="n">
-        <v>149.289007512851</v>
+        <v>148.7208016994503</v>
       </c>
       <c r="O2" t="n">
-        <v>12.21838808979527</v>
+        <v>12.19511384528453</v>
       </c>
       <c r="P2" t="n">
-        <v>347.9978621590748</v>
+        <v>347.9848996853749</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23847,28 +23902,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.03738924156236489</v>
+        <v>-0.0369503265763228</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006000699037412849</v>
+        <v>0.0005901580782077254</v>
       </c>
       <c r="M3" t="n">
-        <v>8.912180273180743</v>
+        <v>8.880536090810018</v>
       </c>
       <c r="N3" t="n">
-        <v>126.6253533603236</v>
+        <v>126.1453922884258</v>
       </c>
       <c r="O3" t="n">
-        <v>11.2527931359429</v>
+        <v>11.23144658040209</v>
       </c>
       <c r="P3" t="n">
-        <v>322.5227232683876</v>
+        <v>322.5182704649756</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23925,28 +23980,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03272915531796243</v>
+        <v>0.02470019261623588</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002889031485110438</v>
+        <v>0.0001653174036558847</v>
       </c>
       <c r="M4" t="n">
-        <v>11.15323265450825</v>
+        <v>11.1530366424404</v>
       </c>
       <c r="N4" t="n">
-        <v>208.3051133615018</v>
+        <v>208.0394805959883</v>
       </c>
       <c r="O4" t="n">
-        <v>14.43277912813405</v>
+        <v>14.423573780308</v>
       </c>
       <c r="P4" t="n">
-        <v>302.2922639756848</v>
+        <v>302.3711793940107</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24003,28 +24058,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2871654206827214</v>
+        <v>0.2877973357617308</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02642129467978438</v>
+        <v>0.02671464323365436</v>
       </c>
       <c r="M5" t="n">
-        <v>9.420416912329506</v>
+        <v>9.388302305624574</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0145455356649</v>
+        <v>163.4124194167938</v>
       </c>
       <c r="O5" t="n">
-        <v>12.80681637002986</v>
+        <v>12.78328672199735</v>
       </c>
       <c r="P5" t="n">
-        <v>300.3364118936299</v>
+        <v>300.3300088089916</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24075,28 +24130,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4760578234110158</v>
+        <v>0.4638398428012567</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02720785823251848</v>
+        <v>0.02599402569874443</v>
       </c>
       <c r="M6" t="n">
-        <v>17.32672503526322</v>
+        <v>17.32894450206737</v>
       </c>
       <c r="N6" t="n">
-        <v>420.8969892865541</v>
+        <v>420.272235471205</v>
       </c>
       <c r="O6" t="n">
-        <v>20.51577415762208</v>
+        <v>20.5005423213925</v>
       </c>
       <c r="P6" t="n">
-        <v>287.3048460409776</v>
+        <v>287.43162528508</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24153,28 +24208,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4210319253054026</v>
+        <v>0.4188893616335745</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04832184363772196</v>
+        <v>0.04820577784314894</v>
       </c>
       <c r="M7" t="n">
-        <v>10.02507147611815</v>
+        <v>9.996548156865927</v>
       </c>
       <c r="N7" t="n">
-        <v>191.1351631593901</v>
+        <v>190.3838517862628</v>
       </c>
       <c r="O7" t="n">
-        <v>13.82516412775596</v>
+        <v>13.79796549445833</v>
       </c>
       <c r="P7" t="n">
-        <v>302.0418703763712</v>
+        <v>302.0632698817864</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24231,28 +24286,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2762409980316911</v>
+        <v>0.2884602159428744</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02429374836814735</v>
+        <v>0.02645133988893345</v>
       </c>
       <c r="M8" t="n">
-        <v>9.949013696732383</v>
+        <v>9.971974791830748</v>
       </c>
       <c r="N8" t="n">
-        <v>167.3217841033689</v>
+        <v>167.7808691466348</v>
       </c>
       <c r="O8" t="n">
-        <v>12.93529219242337</v>
+        <v>12.95302548235874</v>
       </c>
       <c r="P8" t="n">
-        <v>312.7998469709866</v>
+        <v>312.6772827972365</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24312,7 +24367,7 @@
         <v>0.2900169510887285</v>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K9" t="n">
         <v>255</v>
@@ -24390,7 +24445,7 @@
         <v>0.4637612388494979</v>
       </c>
       <c r="J10" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K10" t="n">
         <v>248</v>
@@ -24468,7 +24523,7 @@
         <v>0.3846129103259714</v>
       </c>
       <c r="J11" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K11" t="n">
         <v>241</v>
@@ -24540,7 +24595,7 @@
         <v>0.4953354097150815</v>
       </c>
       <c r="J12" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K12" t="n">
         <v>259</v>
@@ -24618,7 +24673,7 @@
         <v>0.3343015114685819</v>
       </c>
       <c r="J13" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K13" t="n">
         <v>255</v>
@@ -24696,7 +24751,7 @@
         <v>0.4750505972905189</v>
       </c>
       <c r="J14" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K14" t="n">
         <v>243</v>
@@ -24774,7 +24829,7 @@
         <v>0.4187000450668413</v>
       </c>
       <c r="J15" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K15" t="n">
         <v>255</v>
@@ -24852,7 +24907,7 @@
         <v>0.2435866656734553</v>
       </c>
       <c r="J16" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K16" t="n">
         <v>242</v>
@@ -24930,7 +24985,7 @@
         <v>0.3649156235009971</v>
       </c>
       <c r="J17" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K17" t="n">
         <v>243</v>
@@ -25008,7 +25063,7 @@
         <v>0.6138303710685674</v>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K18" t="n">
         <v>208</v>
@@ -25086,7 +25141,7 @@
         <v>1.224539976845515</v>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K19" t="n">
         <v>229</v>
@@ -25164,7 +25219,7 @@
         <v>1.07107516534328</v>
       </c>
       <c r="J20" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K20" t="n">
         <v>224</v>
@@ -25220,7 +25275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54405,6 +54460,65 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.46371346665473,174.64395278688895</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.46300415962172,174.64425229261886</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.46229402740049,174.64459431606446</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.46159448549699,174.64438517839935</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.460885543559975,174.6446645664914</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.4601880860615,174.64434631112033</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.45949063888822,174.6440271184737</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr"/>
+      <c r="R332" t="inlineStr"/>
+      <c r="S332" t="inlineStr"/>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U332"/>
+  <dimension ref="A1:U336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20070,12 +20070,8 @@
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="inlineStr"/>
-      <c r="R329" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="S329" t="n">
-        <v>263.7066666666667</v>
-      </c>
+      <c r="R329" t="inlineStr"/>
+      <c r="S329" t="inlineStr"/>
       <c r="T329" t="n">
         <v>267.1718181818182</v>
       </c>
@@ -20140,9 +20136,7 @@
         <v>368.7414285714286</v>
       </c>
       <c r="R330" t="inlineStr"/>
-      <c r="S330" t="n">
-        <v>253.2866666666666</v>
-      </c>
+      <c r="S330" t="inlineStr"/>
       <c r="T330" t="n">
         <v>259.5790909090909</v>
       </c>
@@ -20238,6 +20232,224 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>329.48</v>
+      </c>
+      <c r="C333" t="n">
+        <v>301.7375510204082</v>
+      </c>
+      <c r="D333" t="n">
+        <v>278.1075862068965</v>
+      </c>
+      <c r="E333" t="n">
+        <v>290.1771428571428</v>
+      </c>
+      <c r="F333" t="n">
+        <v>258.2552631578947</v>
+      </c>
+      <c r="G333" t="n">
+        <v>326.5764705882353</v>
+      </c>
+      <c r="H333" t="n">
+        <v>338.63</v>
+      </c>
+      <c r="I333" t="n">
+        <v>335.5857142857143</v>
+      </c>
+      <c r="J333" t="n">
+        <v>335.46</v>
+      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="inlineStr"/>
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr"/>
+      <c r="R333" t="inlineStr"/>
+      <c r="S333" t="inlineStr"/>
+      <c r="T333" t="inlineStr"/>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>354.95</v>
+      </c>
+      <c r="C334" t="n">
+        <v>342.2934693877551</v>
+      </c>
+      <c r="D334" t="n">
+        <v>306.9520689655172</v>
+      </c>
+      <c r="E334" t="n">
+        <v>312.5790476190476</v>
+      </c>
+      <c r="F334" t="n">
+        <v>285.2826315789474</v>
+      </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr"/>
+      <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
+      <c r="R334" t="inlineStr"/>
+      <c r="S334" t="inlineStr"/>
+      <c r="T334" t="n">
+        <v>285.96</v>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="n">
+        <v>315.2142105263157</v>
+      </c>
+      <c r="G335" t="n">
+        <v>326.0111764705882</v>
+      </c>
+      <c r="H335" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="I335" t="n">
+        <v>338.3585714285715</v>
+      </c>
+      <c r="J335" t="n">
+        <v>339.18</v>
+      </c>
+      <c r="K335" t="n">
+        <v>339.68</v>
+      </c>
+      <c r="L335" t="n">
+        <v>333.6814285714286</v>
+      </c>
+      <c r="M335" t="n">
+        <v>336.3509090909091</v>
+      </c>
+      <c r="N335" t="n">
+        <v>335.94</v>
+      </c>
+      <c r="O335" t="n">
+        <v>334.42</v>
+      </c>
+      <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="n">
+        <v>340.6971428571428</v>
+      </c>
+      <c r="R335" t="n">
+        <v>358.34</v>
+      </c>
+      <c r="S335" t="n">
+        <v>346.14</v>
+      </c>
+      <c r="T335" t="n">
+        <v>324.4109090909091</v>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>352.74</v>
+      </c>
+      <c r="C336" t="n">
+        <v>322.0173469387755</v>
+      </c>
+      <c r="D336" t="n">
+        <v>301.8293103448276</v>
+      </c>
+      <c r="E336" t="n">
+        <v>310.9485714285714</v>
+      </c>
+      <c r="F336" t="n">
+        <v>283.7505263157895</v>
+      </c>
+      <c r="G336" t="n">
+        <v>312.3064705882353</v>
+      </c>
+      <c r="H336" t="n">
+        <v>318.44</v>
+      </c>
+      <c r="I336" t="n">
+        <v>335.8628571428572</v>
+      </c>
+      <c r="J336" t="n">
+        <v>346.3</v>
+      </c>
+      <c r="K336" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="L336" t="n">
+        <v>346.2571428571428</v>
+      </c>
+      <c r="M336" t="n">
+        <v>363.4718181818182</v>
+      </c>
+      <c r="N336" t="n">
+        <v>359.38</v>
+      </c>
+      <c r="O336" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="P336" t="n">
+        <v>357.9018181818182</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>380.6357142857143</v>
+      </c>
+      <c r="R336" t="n">
+        <v>373.31</v>
+      </c>
+      <c r="S336" t="n">
+        <v>342.81</v>
+      </c>
+      <c r="T336" t="inlineStr"/>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20249,7 +20461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23657,6 +23869,46 @@
       </c>
       <c r="B340" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -23830,28 +24082,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0172152012064441</v>
+        <v>-0.02096020795338117</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001100329218461926</v>
+        <v>0.0001648787318166978</v>
       </c>
       <c r="M2" t="n">
-        <v>9.327656564559765</v>
+        <v>9.339984714401529</v>
       </c>
       <c r="N2" t="n">
-        <v>148.7208016994503</v>
+        <v>148.5734689572925</v>
       </c>
       <c r="O2" t="n">
-        <v>12.19511384528453</v>
+        <v>12.18907170203262</v>
       </c>
       <c r="P2" t="n">
-        <v>347.9848996853749</v>
+        <v>348.0221999484847</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23902,28 +24154,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.0369503265763228</v>
+        <v>-0.03601777205449994</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005901580782077254</v>
+        <v>0.0005585240810727088</v>
       </c>
       <c r="M3" t="n">
-        <v>8.880536090810018</v>
+        <v>8.934149688681563</v>
       </c>
       <c r="N3" t="n">
-        <v>126.1453922884258</v>
+        <v>127.8166802859365</v>
       </c>
       <c r="O3" t="n">
-        <v>11.23144658040209</v>
+        <v>11.30560393282625</v>
       </c>
       <c r="P3" t="n">
-        <v>322.5182704649756</v>
+        <v>322.5086148403492</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23980,28 +24232,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02470019261623588</v>
+        <v>0.01006967410912583</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001653174036558847</v>
+        <v>2.773939717648499e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>11.1530366424404</v>
+        <v>11.13530563286414</v>
       </c>
       <c r="N4" t="n">
-        <v>208.0394805959883</v>
+        <v>208.0674801787921</v>
       </c>
       <c r="O4" t="n">
-        <v>14.423573780308</v>
+        <v>14.42454436641907</v>
       </c>
       <c r="P4" t="n">
-        <v>302.3711793940107</v>
+        <v>302.5151411135517</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24058,28 +24310,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2877973357617308</v>
+        <v>0.2815412206307177</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02671464323365436</v>
+        <v>0.0259179830024544</v>
       </c>
       <c r="M5" t="n">
-        <v>9.388302305624574</v>
+        <v>9.3869177804426</v>
       </c>
       <c r="N5" t="n">
-        <v>163.4124194167938</v>
+        <v>162.8651806995317</v>
       </c>
       <c r="O5" t="n">
-        <v>12.78328672199735</v>
+        <v>12.76186431128037</v>
       </c>
       <c r="P5" t="n">
-        <v>300.3300088089916</v>
+        <v>300.3933541633164</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24130,28 +24382,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4638398428012567</v>
+        <v>0.4243665067055329</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02599402569874443</v>
+        <v>0.02201750575867822</v>
       </c>
       <c r="M6" t="n">
-        <v>17.32894450206737</v>
+        <v>17.41535120873894</v>
       </c>
       <c r="N6" t="n">
-        <v>420.272235471205</v>
+        <v>422.834601348865</v>
       </c>
       <c r="O6" t="n">
-        <v>20.5005423213925</v>
+        <v>20.56294242925523</v>
       </c>
       <c r="P6" t="n">
-        <v>287.43162528508</v>
+        <v>287.8418875392675</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24208,28 +24460,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4188893616335745</v>
+        <v>0.4384460365002446</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04820577784314894</v>
+        <v>0.05334282943668467</v>
       </c>
       <c r="M7" t="n">
-        <v>9.996548156865927</v>
+        <v>9.978238444936069</v>
       </c>
       <c r="N7" t="n">
-        <v>190.3838517862628</v>
+        <v>189.5153261389655</v>
       </c>
       <c r="O7" t="n">
-        <v>13.79796549445833</v>
+        <v>13.76645655711612</v>
       </c>
       <c r="P7" t="n">
-        <v>302.0632698817864</v>
+        <v>301.8675118229907</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24286,28 +24538,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2884602159428744</v>
+        <v>0.3157975972819178</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02645133988893345</v>
+        <v>0.03162244038333217</v>
       </c>
       <c r="M8" t="n">
-        <v>9.971974791830748</v>
+        <v>10.01152535893607</v>
       </c>
       <c r="N8" t="n">
-        <v>167.7808691466348</v>
+        <v>169.0120279848061</v>
       </c>
       <c r="O8" t="n">
-        <v>12.95302548235874</v>
+        <v>13.00046260656928</v>
       </c>
       <c r="P8" t="n">
-        <v>312.6772827972365</v>
+        <v>312.402447866581</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24364,28 +24616,28 @@
         <v>0.0848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2900169510887285</v>
+        <v>0.3141066359444785</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02091020710319547</v>
+        <v>0.02477762413237694</v>
       </c>
       <c r="M9" t="n">
-        <v>11.06386411513152</v>
+        <v>11.04905265340589</v>
       </c>
       <c r="N9" t="n">
-        <v>211.9209698403839</v>
+        <v>210.9479808374801</v>
       </c>
       <c r="O9" t="n">
-        <v>14.55750561876532</v>
+        <v>14.52404836254273</v>
       </c>
       <c r="P9" t="n">
-        <v>317.7237167024762</v>
+        <v>317.4759981961087</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24442,28 +24694,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4637612388494979</v>
+        <v>0.4757149152432951</v>
       </c>
       <c r="J10" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05866744222723486</v>
+        <v>0.06266432875297945</v>
       </c>
       <c r="M10" t="n">
-        <v>10.73637614220925</v>
+        <v>10.66842305898047</v>
       </c>
       <c r="N10" t="n">
-        <v>186.7932862454724</v>
+        <v>185.1443708414286</v>
       </c>
       <c r="O10" t="n">
-        <v>13.66723403785391</v>
+        <v>13.60677665141266</v>
       </c>
       <c r="P10" t="n">
-        <v>322.9702239329735</v>
+        <v>322.8485692410876</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24520,28 +24772,28 @@
         <v>0.0542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3846129103259714</v>
+        <v>0.3920838880483704</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03764734093748112</v>
+        <v>0.03951523501774923</v>
       </c>
       <c r="M11" t="n">
-        <v>11.23273217065408</v>
+        <v>11.20807166423011</v>
       </c>
       <c r="N11" t="n">
-        <v>209.0691799579193</v>
+        <v>208.1252357688027</v>
       </c>
       <c r="O11" t="n">
-        <v>14.45922473571523</v>
+        <v>14.4265462176088</v>
       </c>
       <c r="P11" t="n">
-        <v>333.2644660069267</v>
+        <v>333.1897002192509</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24592,28 +24844,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4953354097150815</v>
+        <v>0.4897541170444104</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K12" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04985058396362707</v>
+        <v>0.04938962295664129</v>
       </c>
       <c r="M12" t="n">
-        <v>12.67502047693551</v>
+        <v>12.62632488804144</v>
       </c>
       <c r="N12" t="n">
-        <v>256.7466393394001</v>
+        <v>255.1996777168413</v>
       </c>
       <c r="O12" t="n">
-        <v>16.02331549147679</v>
+        <v>15.97497035104733</v>
       </c>
       <c r="P12" t="n">
-        <v>331.227347159643</v>
+        <v>331.2834225454658</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24670,28 +24922,28 @@
         <v>0.0641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3343015114685819</v>
+        <v>0.3441258237064869</v>
       </c>
       <c r="J13" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K13" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02075644530762111</v>
+        <v>0.02215494230723136</v>
       </c>
       <c r="M13" t="n">
-        <v>13.1019926428741</v>
+        <v>13.10025954380883</v>
       </c>
       <c r="N13" t="n">
-        <v>287.1033886149933</v>
+        <v>286.6496026900912</v>
       </c>
       <c r="O13" t="n">
-        <v>16.94412548982665</v>
+        <v>16.93072953803501</v>
       </c>
       <c r="P13" t="n">
-        <v>334.5479209045975</v>
+        <v>334.4486680843348</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24748,28 +25000,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4750505972905189</v>
+        <v>0.4751271789910219</v>
       </c>
       <c r="J14" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04720927894481053</v>
+        <v>0.04773892664862189</v>
       </c>
       <c r="M14" t="n">
-        <v>12.86083208642093</v>
+        <v>12.85149880709301</v>
       </c>
       <c r="N14" t="n">
-        <v>248.8910501396397</v>
+        <v>247.9795955024511</v>
       </c>
       <c r="O14" t="n">
-        <v>15.77628125191864</v>
+        <v>15.74736789125253</v>
       </c>
       <c r="P14" t="n">
-        <v>335.4328338164955</v>
+        <v>335.4319643965389</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24826,28 +25078,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4187000450668413</v>
+        <v>0.4173013960558326</v>
       </c>
       <c r="J15" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K15" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03321465677797386</v>
+        <v>0.03329797587910233</v>
       </c>
       <c r="M15" t="n">
-        <v>13.45164350146445</v>
+        <v>13.45740229989786</v>
       </c>
       <c r="N15" t="n">
-        <v>273.0392748978547</v>
+        <v>272.4754872006482</v>
       </c>
       <c r="O15" t="n">
-        <v>16.52390011159153</v>
+        <v>16.50683153123725</v>
       </c>
       <c r="P15" t="n">
-        <v>338.7835459690702</v>
+        <v>338.7977091914969</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24904,28 +25156,28 @@
         <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2435866656734553</v>
+        <v>0.2490125682460589</v>
       </c>
       <c r="J16" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01189238772411727</v>
+        <v>0.01250686633483888</v>
       </c>
       <c r="M16" t="n">
-        <v>13.49849582305146</v>
+        <v>13.47187010364793</v>
       </c>
       <c r="N16" t="n">
-        <v>278.1016242642661</v>
+        <v>277.1723292300176</v>
       </c>
       <c r="O16" t="n">
-        <v>16.676379231244</v>
+        <v>16.64849330209847</v>
       </c>
       <c r="P16" t="n">
-        <v>344.3752987105651</v>
+        <v>344.3216307166326</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24982,28 +25234,28 @@
         <v>0.0379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3649156235009971</v>
+        <v>0.369609625969745</v>
       </c>
       <c r="J17" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K17" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01673338682680559</v>
+        <v>0.01729480747653023</v>
       </c>
       <c r="M17" t="n">
-        <v>16.57524279939837</v>
+        <v>16.59907068809729</v>
       </c>
       <c r="N17" t="n">
-        <v>427.9840235252182</v>
+        <v>427.8193461985364</v>
       </c>
       <c r="O17" t="n">
-        <v>20.68777473594534</v>
+        <v>20.68379428921436</v>
       </c>
       <c r="P17" t="n">
-        <v>348.2331610863059</v>
+        <v>348.1859014417831</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25060,28 +25312,28 @@
         <v>0.0606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6138303710685674</v>
+        <v>0.728696497712809</v>
       </c>
       <c r="J18" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K18" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04962760160479884</v>
+        <v>0.08033412856630306</v>
       </c>
       <c r="M18" t="n">
-        <v>14.84589660205684</v>
+        <v>14.22897193312287</v>
       </c>
       <c r="N18" t="n">
-        <v>389.7951280584812</v>
+        <v>329.8982829272599</v>
       </c>
       <c r="O18" t="n">
-        <v>19.74322992973746</v>
+        <v>18.16310223852907</v>
       </c>
       <c r="P18" t="n">
-        <v>339.2347066306091</v>
+        <v>338.0733803019638</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25138,28 +25390,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.224539976845515</v>
+        <v>1.36968155395281</v>
       </c>
       <c r="J19" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K19" t="n">
         <v>229</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03592507992393168</v>
+        <v>0.04525784828361168</v>
       </c>
       <c r="M19" t="n">
-        <v>40.80976898130912</v>
+        <v>40.1642491107873</v>
       </c>
       <c r="N19" t="n">
-        <v>2013.197127053213</v>
+        <v>1981.448216764446</v>
       </c>
       <c r="O19" t="n">
-        <v>44.86866531392719</v>
+        <v>44.51346107375213</v>
       </c>
       <c r="P19" t="n">
-        <v>290.1844471445854</v>
+        <v>288.6410327604535</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25216,28 +25468,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.07107516534328</v>
+        <v>1.049401059441014</v>
       </c>
       <c r="J20" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K20" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03474569491034096</v>
+        <v>0.03390496485602124</v>
       </c>
       <c r="M20" t="n">
-        <v>34.7727855717507</v>
+        <v>34.6576780306797</v>
       </c>
       <c r="N20" t="n">
-        <v>1591.950809357209</v>
+        <v>1582.409856914013</v>
       </c>
       <c r="O20" t="n">
-        <v>39.89925825572712</v>
+        <v>39.77951554398334</v>
       </c>
       <c r="P20" t="n">
-        <v>289.9181935201655</v>
+        <v>290.1460250108005</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25275,7 +25527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U332"/>
+  <dimension ref="A1:U336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54285,16 +54537,8 @@
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="inlineStr"/>
-      <c r="R329" t="inlineStr">
-        <is>
-          <t>-38.452234209710845,174.6444478253088</t>
-        </is>
-      </c>
-      <c r="S329" t="inlineStr">
-        <is>
-          <t>-38.4515737903525,174.64397485664261</t>
-        </is>
-      </c>
+      <c r="R329" t="inlineStr"/>
+      <c r="S329" t="inlineStr"/>
       <c r="T329" t="inlineStr">
         <is>
           <t>-38.45090627017769,174.64369002911394</t>
@@ -54393,11 +54637,7 @@
         </is>
       </c>
       <c r="R330" t="inlineStr"/>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>-38.451546975503064,174.64408927145436</t>
-        </is>
-      </c>
+      <c r="S330" t="inlineStr"/>
       <c r="T330" t="inlineStr">
         <is>
           <t>-38.45088673120145,174.64377339890666</t>
@@ -54519,6 +54759,318 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.46370909292768,174.64418030488696</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.462999652959894,174.64448669362548</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.462291111375244,174.6447459640538</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.46159042685858,174.64459626431554</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.460880044673345,174.6449505173601</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.46019173670247,174.64415642553112</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.45949102719827,174.64400691874042</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-38.45878698599517,174.64403036483714</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-38.45808273733586,174.64402037880333</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="inlineStr"/>
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr"/>
+      <c r="R333" t="inlineStr"/>
+      <c r="S333" t="inlineStr"/>
+      <c r="T333" t="inlineStr"/>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.46371470205356,174.6438885182019</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.46300858518682,174.64402208585818</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.46229746509442,174.6444155255529</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.461595361156455,174.6443396335873</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.46088599860982,174.64464090154726</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr"/>
+      <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
+      <c r="R334" t="inlineStr"/>
+      <c r="S334" t="inlineStr"/>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-38.450954619067176,174.64348373059966</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.46089259136914,174.64429801604916</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-38.460191612208234,174.6441629012778</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-38.45949183537116,174.64396487732847</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-38.45878759661107,174.64399860088778</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-38.458083704541,174.64397777046767</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-38.457376376490515,174.64395262107547</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-38.45666659567254,174.6439586315088</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-38.45596678341047,174.6438658182302</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-38.45526471655427,174.64380818525436</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-38.45456183358783,174.6437632184844</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-38.45315296304962,174.64356581123937</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-38.452493253676415,174.64318221010876</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-38.45178592058446,174.64306971011828</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-38.45105356625772,174.64306152996684</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-38.46371421538549,174.64391383616993</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-38.463004119707996,174.64425436872287</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-38.46229633674664,174.6444742111908</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.46159500204278,174.6443583119246</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.46088566111981,174.6446584527963</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-38.46018859392308,174.64431989600772</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-38.459486580876806,174.64423820375663</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-38.45878704702569,174.64402719007873</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-38.45808555570767,174.6438962190248</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-38.45738502694458,174.6437604326391</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-38.456675772155364,174.64381500726583</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-38.455986573044896,174.64355607968199</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-38.45528182021672,174.64354048768843</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-38.45458246140261,174.64344036278652</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-38.453877186866336,174.64343272250727</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-38.453206768517774,174.6431133454546</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-38.45252722751535,174.64301621799288</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-38.45177735144571,174.6431062747778</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr"/>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U336"/>
+  <dimension ref="A1:U337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20450,6 +20450,75 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>356.05</v>
+      </c>
+      <c r="C337" t="n">
+        <v>324.5057142857143</v>
+      </c>
+      <c r="D337" t="n">
+        <v>311.3403448275862</v>
+      </c>
+      <c r="E337" t="n">
+        <v>309.5433333333333</v>
+      </c>
+      <c r="F337" t="n">
+        <v>300.2652631578948</v>
+      </c>
+      <c r="G337" t="n">
+        <v>308.5888235294117</v>
+      </c>
+      <c r="H337" t="n">
+        <v>329.2466666666667</v>
+      </c>
+      <c r="I337" t="n">
+        <v>330.81</v>
+      </c>
+      <c r="J337" t="n">
+        <v>343.5233333333333</v>
+      </c>
+      <c r="K337" t="n">
+        <v>342.05</v>
+      </c>
+      <c r="L337" t="n">
+        <v>332.8766666666667</v>
+      </c>
+      <c r="M337" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="N337" t="n">
+        <v>345.4633333333333</v>
+      </c>
+      <c r="O337" t="n">
+        <v>352.3333333333333</v>
+      </c>
+      <c r="P337" t="n">
+        <v>349.52</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="R337" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="S337" t="n">
+        <v>332.6533333333333</v>
+      </c>
+      <c r="T337" t="n">
+        <v>319.23</v>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20461,7 +20530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23909,6 +23978,16 @@
       </c>
       <c r="B344" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -25527,7 +25606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U336"/>
+  <dimension ref="A1:U337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55071,6 +55150,113 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-38.46371494428448,174.6438759164981</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-38.463004667754305,174.64422586203736</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-38.46229843164038,174.6443652540489</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-38.46159469253556,174.64437440998904</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-38.460889298824455,174.64446926587337</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-38.4601877751229,174.644362483638</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-38.45948896082032,174.64411440881048</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-38.45878593430631,174.64408507214205</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-38.458084833794075,174.64392802256108</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-38.45737759684147,174.64392550878165</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-38.456666008432826,174.6439678225017</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-38.45597046770211,174.6438081543195</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-38.45527166559868,174.64369942361895</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-38.45457490454041,174.6435586404502</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-38.45387107098932,174.6435284456081</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-38.45319345058931,174.6432253412031</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>-38.45249724794073,174.64316269467813</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-38.45175121507421,174.64321779876363</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-38.45104023411412,174.6431184177192</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -24161,28 +24161,28 @@
         <v>0.1224</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02096020795338117</v>
+        <v>-0.0150179312660052</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001648787318166978</v>
+        <v>8.509155781866173e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>9.339984714401529</v>
+        <v>9.333573897749487</v>
       </c>
       <c r="N2" t="n">
-        <v>148.5734689572925</v>
+        <v>148.2823849524758</v>
       </c>
       <c r="O2" t="n">
-        <v>12.18907170203262</v>
+        <v>12.17712547986904</v>
       </c>
       <c r="P2" t="n">
-        <v>348.0221999484847</v>
+        <v>347.9622817936846</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24233,28 +24233,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.03601777205449994</v>
+        <v>-0.03404224768279023</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005585240810727088</v>
+        <v>0.0005022328580481794</v>
       </c>
       <c r="M3" t="n">
-        <v>8.934149688681563</v>
+        <v>8.91070339356315</v>
       </c>
       <c r="N3" t="n">
-        <v>127.8166802859365</v>
+        <v>127.3696532879105</v>
       </c>
       <c r="O3" t="n">
-        <v>11.30560393282625</v>
+        <v>11.28581646527669</v>
       </c>
       <c r="P3" t="n">
-        <v>322.5086148403492</v>
+        <v>322.4884055161561</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24311,28 +24311,28 @@
         <v>0.1797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01006967410912583</v>
+        <v>0.01574765359786534</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>2.773939717648499e-05</v>
+        <v>6.821709846960289e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>11.13530563286414</v>
+        <v>11.12743307956544</v>
       </c>
       <c r="N4" t="n">
-        <v>208.0674801787921</v>
+        <v>207.5676282200902</v>
       </c>
       <c r="O4" t="n">
-        <v>14.42454436641907</v>
+        <v>14.4072075094409</v>
       </c>
       <c r="P4" t="n">
-        <v>302.5151411135517</v>
+        <v>302.4588635867433</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24389,28 +24389,28 @@
         <v>0.1239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2815412206307177</v>
+        <v>0.2828139816903873</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0259179830024544</v>
+        <v>0.02631796032271583</v>
       </c>
       <c r="M5" t="n">
-        <v>9.3869177804426</v>
+        <v>9.358032527746913</v>
       </c>
       <c r="N5" t="n">
-        <v>162.8651806995317</v>
+        <v>162.2859935259191</v>
       </c>
       <c r="O5" t="n">
-        <v>12.76186431128037</v>
+        <v>12.73915199398763</v>
       </c>
       <c r="P5" t="n">
-        <v>300.3933541633164</v>
+        <v>300.3803527698702</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24461,28 +24461,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.4243665067055329</v>
+        <v>0.4254496683326986</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02201750575867822</v>
+        <v>0.02228399817056337</v>
       </c>
       <c r="M6" t="n">
-        <v>17.41535120873894</v>
+        <v>17.35344927274861</v>
       </c>
       <c r="N6" t="n">
-        <v>422.834601348865</v>
+        <v>421.2168953588218</v>
       </c>
       <c r="O6" t="n">
-        <v>20.56294242925523</v>
+        <v>20.52356926459971</v>
       </c>
       <c r="P6" t="n">
-        <v>287.8418875392675</v>
+        <v>287.8305601381621</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24539,28 +24539,28 @@
         <v>0.1007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4384460365002446</v>
+        <v>0.4350792697291528</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05334282943668467</v>
+        <v>0.05292682668632775</v>
       </c>
       <c r="M7" t="n">
-        <v>9.978238444936069</v>
+        <v>9.957276993867785</v>
       </c>
       <c r="N7" t="n">
-        <v>189.5153261389655</v>
+        <v>188.8341162279762</v>
       </c>
       <c r="O7" t="n">
-        <v>13.76645655711612</v>
+        <v>13.74169262601868</v>
       </c>
       <c r="P7" t="n">
-        <v>301.8675118229907</v>
+        <v>301.901412142139</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24617,28 +24617,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3157975972819178</v>
+        <v>0.3218833851316875</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03162244038333217</v>
+        <v>0.03298573160307139</v>
       </c>
       <c r="M8" t="n">
-        <v>10.01152535893607</v>
+        <v>10.0052141994847</v>
       </c>
       <c r="N8" t="n">
-        <v>169.0120279848061</v>
+        <v>168.6537981232814</v>
       </c>
       <c r="O8" t="n">
-        <v>13.00046260656928</v>
+        <v>12.9866777169252</v>
       </c>
       <c r="P8" t="n">
-        <v>312.402447866581</v>
+        <v>312.3409067255951</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24695,28 +24695,28 @@
         <v>0.0848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3141066359444785</v>
+        <v>0.3177861781175406</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02477762413237694</v>
+        <v>0.02550736572061119</v>
       </c>
       <c r="M9" t="n">
-        <v>11.04905265340589</v>
+        <v>11.0236833385448</v>
       </c>
       <c r="N9" t="n">
-        <v>210.9479808374801</v>
+        <v>210.2387889059794</v>
       </c>
       <c r="O9" t="n">
-        <v>14.52404836254273</v>
+        <v>14.49961340539738</v>
       </c>
       <c r="P9" t="n">
-        <v>317.4759981961087</v>
+        <v>317.4379682048904</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24773,28 +24773,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4757149152432951</v>
+        <v>0.4818527409616252</v>
       </c>
       <c r="J10" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06266432875297945</v>
+        <v>0.06454102352907232</v>
       </c>
       <c r="M10" t="n">
-        <v>10.66842305898047</v>
+        <v>10.65673580965888</v>
       </c>
       <c r="N10" t="n">
-        <v>185.1443708414286</v>
+        <v>184.6886119944995</v>
       </c>
       <c r="O10" t="n">
-        <v>13.60677665141266</v>
+        <v>13.590018837165</v>
       </c>
       <c r="P10" t="n">
-        <v>322.8485692410876</v>
+        <v>322.7858586694171</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24851,28 +24851,28 @@
         <v>0.0542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3920838880483704</v>
+        <v>0.3911605643056679</v>
       </c>
       <c r="J11" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03951523501774923</v>
+        <v>0.03962921790200602</v>
       </c>
       <c r="M11" t="n">
-        <v>11.20807166423011</v>
+        <v>11.1672805207987</v>
       </c>
       <c r="N11" t="n">
-        <v>208.1252357688027</v>
+        <v>207.2783937616475</v>
       </c>
       <c r="O11" t="n">
-        <v>14.4265462176088</v>
+        <v>14.39716617121743</v>
       </c>
       <c r="P11" t="n">
-        <v>333.1897002192509</v>
+        <v>333.1989688069354</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24923,28 +24923,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4897541170444104</v>
+        <v>0.4820241892801934</v>
       </c>
       <c r="J12" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04938962295664129</v>
+        <v>0.04816470306696485</v>
       </c>
       <c r="M12" t="n">
-        <v>12.62632488804144</v>
+        <v>12.62024171433207</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1996777168413</v>
+        <v>254.6833062434411</v>
       </c>
       <c r="O12" t="n">
-        <v>15.97497035104733</v>
+        <v>15.95880027581776</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2834225454658</v>
+        <v>331.3614718461625</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25001,28 +25001,28 @@
         <v>0.0641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3441258237064869</v>
+        <v>0.3427549181436413</v>
       </c>
       <c r="J13" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02215494230723136</v>
+        <v>0.02214145471630469</v>
       </c>
       <c r="M13" t="n">
-        <v>13.10025954380883</v>
+        <v>13.05750857213115</v>
       </c>
       <c r="N13" t="n">
-        <v>286.6496026900912</v>
+        <v>285.5524660558546</v>
       </c>
       <c r="O13" t="n">
-        <v>16.93072953803501</v>
+        <v>16.89829772657159</v>
       </c>
       <c r="P13" t="n">
-        <v>334.4486680843348</v>
+        <v>334.4625573856412</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25079,28 +25079,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4751271789910219</v>
+        <v>0.4734613358739398</v>
       </c>
       <c r="J14" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04773892664862189</v>
+        <v>0.04777450990285648</v>
       </c>
       <c r="M14" t="n">
-        <v>12.85149880709301</v>
+        <v>12.80760915180014</v>
       </c>
       <c r="N14" t="n">
-        <v>247.9795955024511</v>
+        <v>246.9909258443165</v>
       </c>
       <c r="O14" t="n">
-        <v>15.74736789125253</v>
+        <v>15.71594495550034</v>
       </c>
       <c r="P14" t="n">
-        <v>335.4319643965389</v>
+        <v>335.4487263038482</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25157,28 +25157,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4173013960558326</v>
+        <v>0.4193373972437903</v>
       </c>
       <c r="J15" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03329797587910233</v>
+        <v>0.03385216219617604</v>
       </c>
       <c r="M15" t="n">
-        <v>13.45740229989786</v>
+        <v>13.4152748808524</v>
       </c>
       <c r="N15" t="n">
-        <v>272.4754872006482</v>
+        <v>271.4493407031026</v>
       </c>
       <c r="O15" t="n">
-        <v>16.50683153123725</v>
+        <v>16.47571973247611</v>
       </c>
       <c r="P15" t="n">
-        <v>338.7977091914969</v>
+        <v>338.7768373136538</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25235,28 +25235,28 @@
         <v>0.0667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2490125682460589</v>
+        <v>0.2481146970872437</v>
       </c>
       <c r="J16" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K16" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01250686633483888</v>
+        <v>0.01251238037264113</v>
       </c>
       <c r="M16" t="n">
-        <v>13.47187010364793</v>
+        <v>13.42164763128456</v>
       </c>
       <c r="N16" t="n">
-        <v>277.1723292300176</v>
+        <v>276.0423087314342</v>
       </c>
       <c r="O16" t="n">
-        <v>16.64849330209847</v>
+        <v>16.61452102022307</v>
       </c>
       <c r="P16" t="n">
-        <v>344.3216307166326</v>
+        <v>344.3305431378701</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25313,28 +25313,28 @@
         <v>0.0379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.369609625969745</v>
+        <v>0.3794752786482309</v>
       </c>
       <c r="J17" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K17" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01729480747653023</v>
+        <v>0.01832515656869471</v>
       </c>
       <c r="M17" t="n">
-        <v>16.59907068809729</v>
+        <v>16.57597501563109</v>
       </c>
       <c r="N17" t="n">
-        <v>427.8193461985364</v>
+        <v>426.7645317746823</v>
       </c>
       <c r="O17" t="n">
-        <v>20.68379428921436</v>
+        <v>20.65827998103139</v>
       </c>
       <c r="P17" t="n">
-        <v>348.1859014417831</v>
+        <v>348.0865454350672</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25391,28 +25391,28 @@
         <v>0.0606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.728696497712809</v>
+        <v>0.7315752377167888</v>
       </c>
       <c r="J18" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K18" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08033412856630306</v>
+        <v>0.08157416651168237</v>
       </c>
       <c r="M18" t="n">
-        <v>14.22897193312287</v>
+        <v>14.17385822747094</v>
       </c>
       <c r="N18" t="n">
-        <v>329.8982829272599</v>
+        <v>328.3776572985827</v>
       </c>
       <c r="O18" t="n">
-        <v>18.16310223852907</v>
+        <v>18.12119359475481</v>
       </c>
       <c r="P18" t="n">
-        <v>338.0733803019638</v>
+        <v>338.0438554669153</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25469,28 +25469,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>1.36968155395281</v>
+        <v>1.377184219641358</v>
       </c>
       <c r="J19" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K19" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04525784828361168</v>
+        <v>0.04609957462950298</v>
       </c>
       <c r="M19" t="n">
-        <v>40.1642491107873</v>
+        <v>40.01216254815043</v>
       </c>
       <c r="N19" t="n">
-        <v>1981.448216764446</v>
+        <v>1973.162771640389</v>
       </c>
       <c r="O19" t="n">
-        <v>44.51346107375213</v>
+        <v>44.42029684322684</v>
       </c>
       <c r="P19" t="n">
-        <v>288.6410327604535</v>
+        <v>288.560329135478</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25547,28 +25547,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.049401059441014</v>
+        <v>1.051243024113703</v>
       </c>
       <c r="J20" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K20" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03390496485602124</v>
+        <v>0.03432092877105097</v>
       </c>
       <c r="M20" t="n">
-        <v>34.6576780306797</v>
+        <v>34.5121206564526</v>
       </c>
       <c r="N20" t="n">
-        <v>1582.409856914013</v>
+        <v>1575.45763324169</v>
       </c>
       <c r="O20" t="n">
-        <v>39.77951554398334</v>
+        <v>39.69203488411359</v>
       </c>
       <c r="P20" t="n">
-        <v>290.1460250108005</v>
+        <v>290.1265591975537</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">

--- a/data/nzd0259/nzd0259.xlsx
+++ b/data/nzd0259/nzd0259.xlsx
@@ -24152,13 +24152,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1716</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1224</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.01501793126600533</v>
@@ -24229,9 +24229,15 @@
       <c r="E3" t="n">
         <v>0.9444287636517339</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1919</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.03404310551753788</v>
       </c>
@@ -24302,13 +24308,13 @@
         <v>0.8888575273034678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.145</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1219</v>
+        <v>0.1851</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1797</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.01571496974717435</v>
@@ -24380,13 +24386,13 @@
         <v>0.8332862909547106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0922</v>
+        <v>0.1786</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1239</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.2828241024183858</v>
@@ -24457,9 +24463,15 @@
       <c r="E6" t="n">
         <v>0.7777150546064707</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0886</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1372</v>
+      </c>
       <c r="I6" t="n">
         <v>0.4254412623049174</v>
       </c>
@@ -24530,13 +24542,13 @@
         <v>0.7221438182577136</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0726</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1007</v>
+        <v>0.1282</v>
       </c>
       <c r="I7" t="n">
         <v>0.4350740278846798</v>
@@ -24608,13 +24620,13 @@
         <v>0.6665725819089563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.066</v>
+        <v>0.0776</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.3218814387829134</v>
@@ -24686,13 +24698,13 @@
         <v>0.611001345560199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0629</v>
+        <v>0.0745</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0848</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.3177876198189343</v>
@@ -24764,13 +24776,13 @@
         <v>0.5554301092114418</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0537</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.1441</v>
       </c>
       <c r="I10" t="n">
         <v>0.4818552059774134</v>
@@ -24842,13 +24854,13 @@
         <v>0.4998706437443982</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0439</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0542</v>
+        <v>0.0935</v>
       </c>
       <c r="I11" t="n">
         <v>0.391160564305668</v>
@@ -24919,9 +24931,15 @@
       <c r="E12" t="n">
         <v>0.4442994073960735</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06279999999999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1525</v>
+      </c>
       <c r="I12" t="n">
         <v>0.4820527738911721</v>
       </c>
@@ -24992,13 +25010,13 @@
         <v>0.3887281710470888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0525</v>
+        <v>0.0576</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0641</v>
+        <v>0.1371</v>
       </c>
       <c r="I13" t="n">
         <v>0.3427517211224014</v>
@@ -25070,13 +25088,13 @@
         <v>0.3331569346989078</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0524</v>
+        <v>0.0444</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0677</v>
+        <v>0.0708</v>
       </c>
       <c r="I14" t="n">
         <v>0.4734529765832721</v>
@@ -25151,10 +25169,10 @@
         <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0518</v>
+        <v>0.0478</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0776</v>
       </c>
       <c r="I15" t="n">
         <v>0.4193325433899119</v>
@@ -25226,13 +25244,13 @@
         <v>0.2220144620022584</v>
       </c>
       <c r="F16" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0495</v>
+        <v>0.0581</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0667</v>
+        <v>0.0785</v>
       </c>
       <c r="I16" t="n">
         <v>0.2480992526015245</v>
@@ -25304,13 +25322,13 @@
         <v>0.1664432256539337</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0326</v>
+        <v>0.0764</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0379</v>
+        <v>0.19</v>
       </c>
       <c r="I17" t="n">
         <v>0.3794608999422885</v>
@@ -25382,13 +25400,13 @@
         <v>0.1111424726971295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G18" t="n">
-        <v>0.044</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0606</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
         <v>0.7315752377167888</v>
@@ -25460,13 +25478,13 @@
         <v>0.05557123634856477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0447</v>
+        <v>0.0512</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.0912</v>
       </c>
       <c r="I19" t="n">
         <v>1.377170715372136</v>
@@ -25538,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0442</v>
+        <v>0.054</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.098</v>
       </c>
       <c r="I20" t="n">
         <v>1.05124280911145</v>
